--- a/Comparacion2025A/outputs_notebook/Reporte_B_menor_A.xlsx
+++ b/Comparacion2025A/outputs_notebook/Reporte_B_menor_A.xlsx
@@ -10,7 +10,7 @@
     <sheet name="B_menor_A" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'B_menor_A'!$A$1:$R$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'B_menor_A'!$A$1:$R$186</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R182"/>
+  <dimension ref="A1:R186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -782,7 +782,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -866,7 +866,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -950,7 +950,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -2090,17 +2090,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BUITRON FLORES PEDRO ENRIQUE</t>
+          <t>GUTIERREZ ALVAREZ RAUL ERNESTO</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1001046109</t>
+          <t>0602996753</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>BUITRON FLORES PEDRO ENRIQUE</t>
+          <t>GUTIERREZ ALVAREZ RAUL ERNESTO</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2133,13 +2133,13 @@
         <v>976</v>
       </c>
       <c r="O20" t="n">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="P20" t="n">
-        <v>270</v>
+        <v>338</v>
       </c>
       <c r="Q20" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="R20" s="3" t="inlineStr">
         <is>
@@ -2174,17 +2174,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ORQUERA CARRANCO MARIA FERNANDA</t>
+          <t>BUITRON FLORES PEDRO ENRIQUE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1001995958</t>
+          <t>1001046109</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ORQUERA CARRANCO MARIA FERNANDA</t>
+          <t>BUITRON FLORES PEDRO ENRIQUE</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2220,10 +2220,10 @@
         <v>298</v>
       </c>
       <c r="P21" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q21" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R21" s="3" t="inlineStr">
         <is>
@@ -2258,17 +2258,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ROJAS DAVALOS MAURICIO HERNAN</t>
+          <t>ORQUERA CARRANCO MARIA FERNANDA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1708880495</t>
+          <t>1001995958</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ROJAS DAVALOS MAURICIO HERNAN</t>
+          <t>ORQUERA CARRANCO MARIA FERNANDA</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2301,13 +2301,13 @@
         <v>976</v>
       </c>
       <c r="O22" t="n">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="P22" t="n">
-        <v>342</v>
+        <v>266</v>
       </c>
       <c r="Q22" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="R22" s="3" t="inlineStr">
         <is>
@@ -2342,17 +2342,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>GUEVARA ROSERO GRACE CAROLINA</t>
+          <t>ROJAS DAVALOS MAURICIO HERNAN</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1721403689</t>
+          <t>1708880495</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>GUEVARA ROSERO GRACE CAROLINA</t>
+          <t>ROJAS DAVALOS MAURICIO HERNAN</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2385,13 +2385,13 @@
         <v>976</v>
       </c>
       <c r="O23" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P23" t="n">
-        <v>52</v>
+        <v>342</v>
       </c>
       <c r="Q23" t="n">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="R23" s="3" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2426,27 +2426,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>BERREZUETA ESPIN TANIA KARINA</t>
+          <t>GUEVARA ROSERO GRACE CAROLINA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0502935166</t>
+          <t>1721403689</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>BERREZUETA ESPIN TANIA KARINA</t>
+          <t>GUEVARA ROSERO GRACE CAROLINA</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2469,13 +2469,13 @@
         <v>976</v>
       </c>
       <c r="O24" t="n">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="P24" t="n">
-        <v>360</v>
+        <v>52</v>
       </c>
       <c r="Q24" t="n">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="R24" s="3" t="inlineStr">
         <is>
@@ -2510,17 +2510,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>VACACELA PINEDA JUAN GABRIEL</t>
+          <t>BERREZUETA ESPIN TANIA KARINA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1104159551</t>
+          <t>0502935166</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>VACACELA PINEDA JUAN GABRIEL</t>
+          <t>BERREZUETA ESPIN TANIA KARINA</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2553,13 +2553,13 @@
         <v>976</v>
       </c>
       <c r="O25" t="n">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="P25" t="n">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="R25" s="3" t="inlineStr">
         <is>
@@ -2579,12 +2579,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE CIENCIAS DE LOS ALIMENTOS Y BIOTECNOLOGIA</t>
+          <t>DEPARTAMENTO DE CIENCIAS ADMINISTRATIVAS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2594,27 +2594,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MALDONADO ALVARADO PEDRO GUSTAVO</t>
+          <t>VACACELA PINEDA JUAN GABRIEL</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1103404867</t>
+          <t>1104159551</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>MALDONADO ALVARADO PEDRO GUSTAVO</t>
+          <t>VACACELA PINEDA JUAN GABRIEL</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2622,24 +2622,28 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>46081</v>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>INGRESADO</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="O26" t="n">
-        <v>230</v>
+        <v>347</v>
       </c>
       <c r="P26" t="n">
-        <v>106</v>
+        <v>342</v>
       </c>
       <c r="Q26" t="n">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="R26" s="3" t="inlineStr">
         <is>
@@ -2710,7 +2714,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -2794,7 +2798,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -2878,7 +2882,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -2916,7 +2920,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2926,27 +2930,27 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CABEZAS TERAN KATTY ELIZABETH</t>
+          <t>MALDONADO ALVARADO PEDRO GUSTAVO</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1717748535</t>
+          <t>1103404867</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CABEZAS TERAN KATTY ELIZABETH</t>
+          <t>MALDONADO ALVARADO PEDRO GUSTAVO</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2962,20 +2966,20 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N30" t="n">
         <v>976</v>
       </c>
       <c r="O30" t="n">
-        <v>352</v>
+        <v>230</v>
       </c>
       <c r="P30" t="n">
-        <v>338</v>
+        <v>188</v>
       </c>
       <c r="Q30" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="R30" s="3" t="inlineStr">
         <is>
@@ -3010,17 +3014,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DONOSO QUIMBITA CATERINE ISABEL</t>
+          <t>CABEZAS TERAN KATTY ELIZABETH</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0502507536</t>
+          <t>1717748535</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>DONOSO QUIMBITA CATERINE ISABEL</t>
+          <t>CABEZAS TERAN KATTY ELIZABETH</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3046,7 +3050,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -3056,10 +3060,10 @@
         <v>352</v>
       </c>
       <c r="P31" t="n">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="R31" s="3" t="inlineStr">
         <is>
@@ -3079,12 +3083,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE CIENCIAS NUCLEARES</t>
+          <t>DEPARTAMENTO DE CIENCIAS DE LOS ALIMENTOS Y BIOTECNOLOGIA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3094,27 +3098,27 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MUÑOZ BISESTI FLORINELLA</t>
+          <t>DONOSO QUIMBITA CATERINE ISABEL</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1704582020</t>
+          <t>0502507536</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>MUÑOZ BISESTI FLORINELLA</t>
+          <t>DONOSO QUIMBITA CATERINE ISABEL</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3130,20 +3134,20 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N32" t="n">
         <v>976</v>
       </c>
       <c r="O32" t="n">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="P32" t="n">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="Q32" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R32" s="3" t="inlineStr">
         <is>
@@ -3178,17 +3182,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PEREZ GUAMANZARA JADY PAULINA</t>
+          <t>MUÑOZ BISESTI FLORINELLA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1711101319</t>
+          <t>1704582020</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PEREZ GUAMANZARA JADY PAULINA</t>
+          <t>MUÑOZ BISESTI FLORINELLA</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3221,13 +3225,13 @@
         <v>976</v>
       </c>
       <c r="O33" t="n">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="P33" t="n">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="Q33" t="n">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="R33" s="3" t="inlineStr">
         <is>
@@ -3262,17 +3266,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VASCO CARRILLO MARIA CATALINA</t>
+          <t>PEREZ GUAMANZARA JADY PAULINA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1711748713</t>
+          <t>1711101319</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>VASCO CARRILLO MARIA CATALINA</t>
+          <t>PEREZ GUAMANZARA JADY PAULINA</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3305,13 +3309,13 @@
         <v>976</v>
       </c>
       <c r="O34" t="n">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="P34" t="n">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="Q34" t="n">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="R34" s="3" t="inlineStr">
         <is>
@@ -3346,17 +3350,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VARGAS JENTZSCH PAUL ERNESTO</t>
+          <t>VASCO CARRILLO MARIA CATALINA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1757079957</t>
+          <t>1711748713</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>VARGAS JENTZSCH PAUL ERNESTO</t>
+          <t>VASCO CARRILLO MARIA CATALINA</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3389,13 +3393,13 @@
         <v>976</v>
       </c>
       <c r="O35" t="n">
-        <v>354</v>
+        <v>234</v>
       </c>
       <c r="P35" t="n">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="Q35" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="R35" s="3" t="inlineStr">
         <is>
@@ -3420,7 +3424,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TÉCNICO DE LABORATORIO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3430,27 +3434,27 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>RIOFRIO DUQUE ESTEFANO ANTONIO</t>
+          <t>VARGAS JENTZSCH PAUL ERNESTO</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1726566423</t>
+          <t>1757079957</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>RIOFRIO DUQUE ESTEFANO ANTONIO</t>
+          <t>VARGAS JENTZSCH PAUL ERNESTO</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TÉCNICO DE LABORATORIO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TÉCNICO DE LABORATORIO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3473,13 +3477,13 @@
         <v>976</v>
       </c>
       <c r="O36" t="n">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="P36" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="Q36" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="R36" s="3" t="inlineStr">
         <is>
@@ -3499,12 +3503,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE CIENCIAS SOCIALES</t>
+          <t>DEPARTAMENTO DE CIENCIAS NUCLEARES</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TÉCNICO DE LABORATORIO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3514,27 +3518,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PERUGACHI KINDLER ANA ELIZABETH</t>
+          <t>RIOFRIO DUQUE ESTEFANO ANTONIO</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1718155441</t>
+          <t>1726566423</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>PERUGACHI KINDLER ANA ELIZABETH</t>
+          <t>RIOFRIO DUQUE ESTEFANO ANTONIO</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TÉCNICO DE LABORATORIO</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TÉCNICO DE LABORATORIO</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3550,20 +3554,20 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N37" t="n">
         <v>976</v>
       </c>
       <c r="O37" t="n">
-        <v>196</v>
+        <v>306</v>
       </c>
       <c r="P37" t="n">
-        <v>164</v>
+        <v>296</v>
       </c>
       <c r="Q37" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="R37" s="3" t="inlineStr">
         <is>
@@ -3583,12 +3587,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE ECONOMIA CUANTITATIVA</t>
+          <t>DEPARTAMENTO DE CIENCIAS SOCIALES</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3598,27 +3602,27 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DIAZ SANCHEZ JUAN PABLO</t>
+          <t>PERUGACHI KINDLER ANA ELIZABETH</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1804033361</t>
+          <t>1718155441</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>DIAZ SANCHEZ JUAN PABLO</t>
+          <t>PERUGACHI KINDLER ANA ELIZABETH</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3641,13 +3645,13 @@
         <v>976</v>
       </c>
       <c r="O38" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P38" t="n">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="Q38" t="n">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="R38" s="3" t="inlineStr">
         <is>
@@ -3672,7 +3676,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3682,27 +3686,27 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>BAEZ FLORES SILVANA MARIBEL</t>
+          <t>DIAZ SANCHEZ JUAN PABLO</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1714409644</t>
+          <t>1804033361</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>BAEZ FLORES SILVANA MARIBEL</t>
+          <t>DIAZ SANCHEZ JUAN PABLO</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3718,20 +3722,20 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N39" t="n">
         <v>976</v>
       </c>
       <c r="O39" t="n">
-        <v>306</v>
+        <v>198</v>
       </c>
       <c r="P39" t="n">
-        <v>288</v>
+        <v>126</v>
       </c>
       <c r="Q39" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="R39" s="3" t="inlineStr">
         <is>
@@ -3802,7 +3806,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -3835,12 +3839,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE ELECTRONICA, TELECOMUNICACIONES Y REDES DE INFORMACION</t>
+          <t>DEPARTAMENTO DE ECONOMIA CUANTITATIVA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3850,27 +3854,27 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FLORES CIFUENTES WILLAMS FERNANDO</t>
+          <t>BAEZ FLORES SILVANA MARIBEL</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0601280688</t>
+          <t>1714409644</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>FLORES CIFUENTES WILLAMS FERNANDO</t>
+          <t>BAEZ FLORES SILVANA MARIBEL</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3886,20 +3890,20 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>PLANIFICADO INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N41" t="n">
         <v>976</v>
       </c>
       <c r="O41" t="n">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="P41" t="n">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="Q41" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R41" s="3" t="inlineStr">
         <is>
@@ -3934,17 +3938,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MOREJON TOBAR RAMIRO EDUARDO</t>
+          <t>REINOSO CHISAGUANO DIEGO JAVIER</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1706847272</t>
+          <t>0502968381</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>MOREJON TOBAR RAMIRO EDUARDO</t>
+          <t>REINOSO CHISAGUANO DIEGO JAVIER</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3970,20 +3974,20 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>PLANIFICADO INICIAL</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N42" t="n">
         <v>976</v>
       </c>
       <c r="O42" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="P42" t="n">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="Q42" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="R42" s="3" t="inlineStr">
         <is>
@@ -4018,17 +4022,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>HERRERA MUÑOZ CARLOS ALFONSO</t>
+          <t>FLORES CIFUENTES WILLAMS FERNANDO</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1707328488</t>
+          <t>0601280688</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>HERRERA MUÑOZ CARLOS ALFONSO</t>
+          <t>FLORES CIFUENTES WILLAMS FERNANDO</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -4061,13 +4065,13 @@
         <v>976</v>
       </c>
       <c r="O43" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P43" t="n">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="Q43" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="R43" s="3" t="inlineStr">
         <is>
@@ -4102,17 +4106,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>LLUGSI CAÑAR RICARDO XAVIER</t>
+          <t>MOREJON TOBAR RAMIRO EDUARDO</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1713827291</t>
+          <t>1706847272</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>LLUGSI CAÑAR RICARDO XAVIER</t>
+          <t>MOREJON TOBAR RAMIRO EDUARDO</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -4145,13 +4149,13 @@
         <v>976</v>
       </c>
       <c r="O44" t="n">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="P44" t="n">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="Q44" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="R44" s="3" t="inlineStr">
         <is>
@@ -4186,17 +4190,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ESTRADA JIMENEZ JOSE ANTONIO</t>
+          <t>HERRERA MUÑOZ CARLOS ALFONSO</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1714672456</t>
+          <t>1707328488</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ESTRADA JIMENEZ JOSE ANTONIO</t>
+          <t>HERRERA MUÑOZ CARLOS ALFONSO</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4222,20 +4226,20 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>PLANIFICADO INICIAL</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N45" t="n">
         <v>976</v>
       </c>
       <c r="O45" t="n">
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="P45" t="n">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="R45" s="3" t="inlineStr">
         <is>
@@ -4270,17 +4274,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>BARBA MOLINA HERNAN VINICIO</t>
+          <t>LLUGSI CAÑAR RICARDO XAVIER</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1716860737</t>
+          <t>1713827291</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>BARBA MOLINA HERNAN VINICIO</t>
+          <t>LLUGSI CAÑAR RICARDO XAVIER</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4313,13 +4317,13 @@
         <v>976</v>
       </c>
       <c r="O46" t="n">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="P46" t="n">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="Q46" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="R46" s="3" t="inlineStr">
         <is>
@@ -4354,17 +4358,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>URQUIZA AGUIAR LUIS FELIPE</t>
+          <t>ESTRADA JIMENEZ JOSE ANTONIO</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1717545287</t>
+          <t>1714672456</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>URQUIZA AGUIAR LUIS FELIPE</t>
+          <t>ESTRADA JIMENEZ JOSE ANTONIO</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4390,20 +4394,20 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N47" t="n">
         <v>976</v>
       </c>
       <c r="O47" t="n">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="P47" t="n">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="Q47" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R47" s="3" t="inlineStr">
         <is>
@@ -4438,17 +4442,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>HIDALGO LASCANO PABLO WILIAN</t>
+          <t>BARBA MOLINA HERNAN VINICIO</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1801537448</t>
+          <t>1716860737</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>HIDALGO LASCANO PABLO WILIAN</t>
+          <t>BARBA MOLINA HERNAN VINICIO</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4481,13 +4485,13 @@
         <v>976</v>
       </c>
       <c r="O48" t="n">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="P48" t="n">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="Q48" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="R48" s="3" t="inlineStr">
         <is>
@@ -4522,17 +4526,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ACOSTA HURTADO TANIA ALEYDA</t>
+          <t>GUAMAN LOACHAMIN DANNY SANTIAGO</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1802467793</t>
+          <t>1717529562</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ACOSTA HURTADO TANIA ALEYDA</t>
+          <t>GUAMAN LOACHAMIN DANNY SANTIAGO</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4558,17 +4562,17 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR INICIAL</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N49" t="n">
         <v>976</v>
       </c>
       <c r="O49" t="n">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="P49" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="Q49" t="n">
         <v>36</v>
@@ -4601,22 +4605,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>DIAZ VILLACIS LUIS EFREN</t>
+          <t>URQUIZA AGUIAR LUIS FELIPE</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1706353156</t>
+          <t>1717545287</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>DIAZ VILLACIS LUIS EFREN</t>
+          <t>URQUIZA AGUIAR LUIS FELIPE</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4631,7 +4635,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="K50" s="2" t="n">
@@ -4642,20 +4646,20 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>PLANIFICADO INICIAL</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>439</v>
+        <v>976</v>
       </c>
       <c r="O50" t="n">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="P50" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q50" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="R50" s="3" t="inlineStr">
         <is>
@@ -4680,7 +4684,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4690,27 +4694,27 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SALGADO CAMACAS ROMEL DAVID</t>
+          <t>HIDALGO LASCANO PABLO WILIAN</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1003687017</t>
+          <t>1801537448</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>SALGADO CAMACAS ROMEL DAVID</t>
+          <t>HIDALGO LASCANO PABLO WILIAN</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4733,10 +4737,10 @@
         <v>976</v>
       </c>
       <c r="O51" t="n">
-        <v>414</v>
+        <v>342</v>
       </c>
       <c r="P51" t="n">
-        <v>396</v>
+        <v>324</v>
       </c>
       <c r="Q51" t="n">
         <v>18</v>
@@ -4759,7 +4763,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE ENERGIA ELECTRICA</t>
+          <t>DEPARTAMENTO DE ELECTRONICA, TELECOMUNICACIONES Y REDES DE INFORMACION</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4769,22 +4773,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>VASQUEZ GUERRERO WILSON ANDRES</t>
+          <t>DIAZ VILLACIS LUIS EFREN</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1105028706</t>
+          <t>1706353156</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>VASQUEZ GUERRERO WILSON ANDRES</t>
+          <t>DIAZ VILLACIS LUIS EFREN</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4799,7 +4803,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="K52" s="2" t="n">
@@ -4810,20 +4814,20 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>976</v>
+        <v>439</v>
       </c>
       <c r="O52" t="n">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="P52" t="n">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="Q52" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="R52" s="3" t="inlineStr">
         <is>
@@ -4843,12 +4847,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE ENERGIA ELECTRICA</t>
+          <t>DEPARTAMENTO DE ELECTRONICA, TELECOMUNICACIONES Y REDES DE INFORMACION</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -4858,27 +4862,27 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OSCULLO LALA JOSE ANTONIO</t>
+          <t>SALGADO CAMACAS ROMEL DAVID</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1710446483</t>
+          <t>1003687017</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>OSCULLO LALA JOSE ANTONIO</t>
+          <t>SALGADO CAMACAS ROMEL DAVID</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4894,20 +4898,20 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N53" t="n">
         <v>976</v>
       </c>
       <c r="O53" t="n">
-        <v>234</v>
+        <v>414</v>
       </c>
       <c r="P53" t="n">
-        <v>180</v>
+        <v>396</v>
       </c>
       <c r="Q53" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="R53" s="3" t="inlineStr">
         <is>
@@ -4942,17 +4946,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ARCOS MARTINEZ HUGO NEPTALI</t>
+          <t>VASQUEZ GUERRERO WILSON ANDRES</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1712025764</t>
+          <t>1105028706</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>ARCOS MARTINEZ HUGO NEPTALI</t>
+          <t>VASQUEZ GUERRERO WILSON ANDRES</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4978,20 +4982,20 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N54" t="n">
         <v>976</v>
       </c>
       <c r="O54" t="n">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="P54" t="n">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="Q54" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R54" s="3" t="inlineStr">
         <is>
@@ -5021,22 +5025,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>VILLACIS SALAZAR HUGO MARCELO</t>
+          <t>OSCULLO LALA JOSE ANTONIO</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1801094457</t>
+          <t>1710446483</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>VILLACIS SALAZAR HUGO MARCELO</t>
+          <t>OSCULLO LALA JOSE ANTONIO</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -5051,7 +5055,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="K55" s="2" t="n">
@@ -5062,17 +5066,17 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>INGRESADO</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>146</v>
+        <v>976</v>
       </c>
       <c r="O55" t="n">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="P55" t="n">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="Q55" t="n">
         <v>54</v>
@@ -5100,7 +5104,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5110,27 +5114,27 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>HERNANDEZ VILLACRESES JUAN FRANCISCO</t>
+          <t>ARCOS MARTINEZ HUGO NEPTALI</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1003594114</t>
+          <t>1712025764</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>HERNANDEZ VILLACRESES JUAN FRANCISCO</t>
+          <t>ARCOS MARTINEZ HUGO NEPTALI</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -5146,17 +5150,17 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N56" t="n">
         <v>976</v>
       </c>
       <c r="O56" t="n">
-        <v>414</v>
+        <v>108</v>
       </c>
       <c r="P56" t="n">
-        <v>396</v>
+        <v>90</v>
       </c>
       <c r="Q56" t="n">
         <v>18</v>
@@ -5184,42 +5188,42 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>LOPEZ VASQUEZ ANDRES SEBASTIAN</t>
+          <t>VILLACIS SALAZAR HUGO MARCELO</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1003599212</t>
+          <t>1801094457</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>LOPEZ VASQUEZ ANDRES SEBASTIAN</t>
+          <t>VILLACIS SALAZAR HUGO MARCELO</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="K57" s="2" t="n">
@@ -5230,20 +5234,20 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>INGRESADO</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>976</v>
+        <v>146</v>
       </c>
       <c r="O57" t="n">
-        <v>396</v>
+        <v>108</v>
       </c>
       <c r="P57" t="n">
-        <v>378</v>
+        <v>54</v>
       </c>
       <c r="Q57" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="R57" s="3" t="inlineStr">
         <is>
@@ -5278,17 +5282,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>RAMIREZ GUASGUA JUAN DAVID</t>
+          <t>HERNANDEZ VILLACRESES JUAN FRANCISCO</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1720579380</t>
+          <t>1003594114</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>RAMIREZ GUASGUA JUAN DAVID</t>
+          <t>HERNANDEZ VILLACRESES JUAN FRANCISCO</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -5314,20 +5318,20 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N58" t="n">
         <v>976</v>
       </c>
       <c r="O58" t="n">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="P58" t="n">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="Q58" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="R58" s="3" t="inlineStr">
         <is>
@@ -5362,17 +5366,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SALAZAR FONSECA LUIS FERNANDO</t>
+          <t>LOPEZ VASQUEZ ANDRES SEBASTIAN</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1726046277</t>
+          <t>1003599212</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>SALAZAR FONSECA LUIS FERNANDO</t>
+          <t>LOPEZ VASQUEZ ANDRES SEBASTIAN</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -5398,20 +5402,20 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N59" t="n">
         <v>976</v>
       </c>
       <c r="O59" t="n">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="P59" t="n">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="Q59" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="R59" s="3" t="inlineStr">
         <is>
@@ -5436,7 +5440,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5446,27 +5450,27 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>VARGAS CONTRERAS WALTER ALBERTO</t>
+          <t>RAMIREZ GUASGUA JUAN DAVID</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0922338553</t>
+          <t>1720579380</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>VARGAS CONTRERAS WALTER ALBERTO</t>
+          <t>RAMIREZ GUASGUA JUAN DAVID</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -5482,20 +5486,20 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N60" t="n">
         <v>976</v>
       </c>
       <c r="O60" t="n">
-        <v>302</v>
+        <v>432</v>
       </c>
       <c r="P60" t="n">
-        <v>286</v>
+        <v>360</v>
       </c>
       <c r="Q60" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="R60" s="3" t="inlineStr">
         <is>
@@ -5520,7 +5524,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5530,27 +5534,27 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>OTERO VALLADARES PATRICIA ELIZABETH</t>
+          <t>SALAZAR FONSECA LUIS FERNANDO</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1716132111</t>
+          <t>1726046277</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>OTERO VALLADARES PATRICIA ELIZABETH</t>
+          <t>SALAZAR FONSECA LUIS FERNANDO</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -5566,20 +5570,20 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N61" t="n">
         <v>976</v>
       </c>
       <c r="O61" t="n">
-        <v>306</v>
+        <v>432</v>
       </c>
       <c r="P61" t="n">
-        <v>144</v>
+        <v>360</v>
       </c>
       <c r="Q61" t="n">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="R61" s="3" t="inlineStr">
         <is>
@@ -5599,12 +5603,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE ESTUDIOS ORGANIZACIONALES Y DESARROLLO HUMANO</t>
+          <t>DEPARTAMENTO DE ENERGIA ELECTRICA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5614,27 +5618,27 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ABAD MERCHAN GUIDO ANDRES</t>
+          <t>VARGAS CONTRERAS WALTER ALBERTO</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0101827806</t>
+          <t>0922338553</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>ABAD MERCHAN GUIDO ANDRES</t>
+          <t>VARGAS CONTRERAS WALTER ALBERTO</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -5657,13 +5661,13 @@
         <v>976</v>
       </c>
       <c r="O62" t="n">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="P62" t="n">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="Q62" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R62" s="3" t="inlineStr">
         <is>
@@ -5683,12 +5687,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE ESTUDIOS ORGANIZACIONALES Y DESARROLLO HUMANO</t>
+          <t>DEPARTAMENTO DE ENERGIA ELECTRICA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5698,27 +5702,27 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SANCHEZ CHOEZ NAPOLEON GUILLERMO</t>
+          <t>OTERO VALLADARES PATRICIA ELIZABETH</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0913721106</t>
+          <t>1716132111</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>SANCHEZ CHOEZ NAPOLEON GUILLERMO</t>
+          <t>OTERO VALLADARES PATRICIA ELIZABETH</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -5741,13 +5745,13 @@
         <v>976</v>
       </c>
       <c r="O63" t="n">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="P63" t="n">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="Q63" t="n">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="R63" s="3" t="inlineStr">
         <is>
@@ -5782,17 +5786,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ROMAN VASQUEZ JOSE LUIS</t>
+          <t>ABAD MERCHAN GUIDO ANDRES</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1002278693</t>
+          <t>0101827806</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ROMAN VASQUEZ JOSE LUIS</t>
+          <t>ABAD MERCHAN GUIDO ANDRES</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5825,13 +5829,13 @@
         <v>976</v>
       </c>
       <c r="O64" t="n">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="P64" t="n">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="Q64" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R64" s="3" t="inlineStr">
         <is>
@@ -5866,17 +5870,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>UNDA GALARZA LUIS XAVIER</t>
+          <t>SANCHEZ CHOEZ NAPOLEON GUILLERMO</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1707456776</t>
+          <t>0913721106</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>UNDA GALARZA LUIS XAVIER</t>
+          <t>SANCHEZ CHOEZ NAPOLEON GUILLERMO</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5902,20 +5906,20 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N65" t="n">
         <v>976</v>
       </c>
       <c r="O65" t="n">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="P65" t="n">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="Q65" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="R65" s="3" t="inlineStr">
         <is>
@@ -5950,17 +5954,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>OÑA SERRANO ALBERTO XAVIER</t>
+          <t>ROMAN VASQUEZ JOSE LUIS</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1708054612</t>
+          <t>1002278693</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>OÑA SERRANO ALBERTO XAVIER</t>
+          <t>ROMAN VASQUEZ JOSE LUIS</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5993,13 +5997,13 @@
         <v>976</v>
       </c>
       <c r="O66" t="n">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="P66" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="Q66" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="R66" s="3" t="inlineStr">
         <is>
@@ -6034,17 +6038,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DAVILA FRIAS ALEX VICENTE</t>
+          <t>UNDA GALARZA LUIS XAVIER</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1716849672</t>
+          <t>1707456776</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>DAVILA FRIAS ALEX VICENTE</t>
+          <t>UNDA GALARZA LUIS XAVIER</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -6070,20 +6074,20 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N67" t="n">
         <v>976</v>
       </c>
       <c r="O67" t="n">
-        <v>186</v>
+        <v>288</v>
       </c>
       <c r="P67" t="n">
-        <v>144</v>
+        <v>270</v>
       </c>
       <c r="Q67" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="R67" s="3" t="inlineStr">
         <is>
@@ -6118,17 +6122,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ALCIVAR ESPIN ROBERTO ANDRES</t>
+          <t>OÑA SERRANO ALBERTO XAVIER</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1718251034</t>
+          <t>1708054612</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>ALCIVAR ESPIN ROBERTO ANDRES</t>
+          <t>OÑA SERRANO ALBERTO XAVIER</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -6154,20 +6158,20 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N68" t="n">
         <v>976</v>
       </c>
       <c r="O68" t="n">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="P68" t="n">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="Q68" t="n">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="R68" s="3" t="inlineStr">
         <is>
@@ -6202,17 +6206,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>RAMOS RAMOS VALENTINA</t>
+          <t>DAVILA FRIAS ALEX VICENTE</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1756502009</t>
+          <t>1716849672</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>RAMOS RAMOS VALENTINA</t>
+          <t>DAVILA FRIAS ALEX VICENTE</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -6238,20 +6242,20 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N69" t="n">
         <v>976</v>
       </c>
       <c r="O69" t="n">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="Q69" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="R69" s="3" t="inlineStr">
         <is>
@@ -6271,7 +6275,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE FISICA</t>
+          <t>DEPARTAMENTO DE ESTUDIOS ORGANIZACIONALES Y DESARROLLO HUMANO</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6286,17 +6290,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LOPEZ IZURIETA ERICSSON DANIEL</t>
+          <t>ALCIVAR ESPIN ROBERTO ANDRES</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1708590813</t>
+          <t>1718251034</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>LOPEZ IZURIETA ERICSSON DANIEL</t>
+          <t>ALCIVAR ESPIN ROBERTO ANDRES</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -6329,13 +6333,13 @@
         <v>976</v>
       </c>
       <c r="O70" t="n">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="P70" t="n">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="Q70" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="R70" s="3" t="inlineStr">
         <is>
@@ -6355,7 +6359,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE FISICA</t>
+          <t>DEPARTAMENTO DE ESTUDIOS ORGANIZACIONALES Y DESARROLLO HUMANO</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -6370,17 +6374,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>XULVI BRUNET RAMON</t>
+          <t>ACUÑA BERMEO CRISTINA FERNANDA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1757068646</t>
+          <t>1719387852</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>XULVI BRUNET RAMON</t>
+          <t>ACUÑA BERMEO CRISTINA FERNANDA</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -6413,13 +6417,13 @@
         <v>976</v>
       </c>
       <c r="O71" t="n">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="P71" t="n">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="Q71" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R71" s="3" t="inlineStr">
         <is>
@@ -6439,12 +6443,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE FISICA</t>
+          <t>DEPARTAMENTO DE ESTUDIOS ORGANIZACIONALES Y DESARROLLO HUMANO</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -6454,27 +6458,27 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>JACOME HERBOZO PABLO SANTIAGO</t>
+          <t>RAMOS RAMOS VALENTINA</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1718893207</t>
+          <t>1756502009</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>JACOME HERBOZO PABLO SANTIAGO</t>
+          <t>RAMOS RAMOS VALENTINA</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -6490,20 +6494,20 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N72" t="n">
         <v>976</v>
       </c>
       <c r="O72" t="n">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="P72" t="n">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R72" s="3" t="inlineStr">
         <is>
@@ -6528,7 +6532,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -6538,27 +6542,27 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TENE CHAVEZ CRISTOPHER ROLANDO</t>
+          <t>LOPEZ IZURIETA ERICSSON DANIEL</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1725082414</t>
+          <t>1708590813</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>TENE CHAVEZ CRISTOPHER ROLANDO</t>
+          <t>LOPEZ IZURIETA ERICSSON DANIEL</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -6581,13 +6585,13 @@
         <v>976</v>
       </c>
       <c r="O73" t="n">
-        <v>360</v>
+        <v>198</v>
       </c>
       <c r="P73" t="n">
-        <v>324</v>
+        <v>180</v>
       </c>
       <c r="Q73" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="R73" s="3" t="inlineStr">
         <is>
@@ -6607,12 +6611,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE FORMACION BASICA</t>
+          <t>DEPARTAMENTO DE FISICA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -6622,27 +6626,27 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PACHACAMA MOROCHO RAMON EDISON</t>
+          <t>XULVI BRUNET RAMON</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1710962026</t>
+          <t>1757068646</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PACHACAMA MOROCHO RAMON EDISON</t>
+          <t>XULVI BRUNET RAMON</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -6665,13 +6669,13 @@
         <v>976</v>
       </c>
       <c r="O74" t="n">
-        <v>414</v>
+        <v>198</v>
       </c>
       <c r="P74" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="Q74" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="R74" s="3" t="inlineStr">
         <is>
@@ -6691,12 +6695,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE FORMACION BASICA</t>
+          <t>DEPARTAMENTO DE FISICA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -6706,27 +6710,27 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ZURITA FRANCO DARIO DAVID</t>
+          <t>JACOME HERBOZO PABLO SANTIAGO</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1713023867</t>
+          <t>1718893207</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>ZURITA FRANCO DARIO DAVID</t>
+          <t>JACOME HERBOZO PABLO SANTIAGO</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -6749,13 +6753,13 @@
         <v>976</v>
       </c>
       <c r="O75" t="n">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="P75" t="n">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="Q75" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="R75" s="3" t="inlineStr">
         <is>
@@ -6775,7 +6779,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE FORMACION BASICA</t>
+          <t>DEPARTAMENTO DE FISICA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -6790,17 +6794,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>LEGÑA CASANOVA MARTHA SILVANA</t>
+          <t>TENE CHAVEZ CRISTOPHER ROLANDO</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1713264354</t>
+          <t>1725082414</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>LEGÑA CASANOVA MARTHA SILVANA</t>
+          <t>TENE CHAVEZ CRISTOPHER ROLANDO</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6874,17 +6878,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NOLIVOS VALIENTE JUAN CARLOS</t>
+          <t>PACHACAMA MOROCHO RAMON EDISON</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1713917589</t>
+          <t>1710962026</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>NOLIVOS VALIENTE JUAN CARLOS</t>
+          <t>PACHACAMA MOROCHO RAMON EDISON</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6917,13 +6921,13 @@
         <v>976</v>
       </c>
       <c r="O77" t="n">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="P77" t="n">
         <v>360</v>
       </c>
       <c r="Q77" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="R77" s="3" t="inlineStr">
         <is>
@@ -6958,17 +6962,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>RUIZ BEDOYA NICOLAS ALEXANDER</t>
+          <t>ZURITA FRANCO DARIO DAVID</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1718127895</t>
+          <t>1713023867</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>RUIZ BEDOYA NICOLAS ALEXANDER</t>
+          <t>ZURITA FRANCO DARIO DAVID</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -7042,17 +7046,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ROSERO DAVILA WENDY ADRIANA</t>
+          <t>LEGÑA CASANOVA MARTHA SILVANA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1718337635</t>
+          <t>1713264354</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>ROSERO DAVILA WENDY ADRIANA</t>
+          <t>LEGÑA CASANOVA MARTHA SILVANA</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -7085,10 +7089,10 @@
         <v>976</v>
       </c>
       <c r="O79" t="n">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="P79" t="n">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="Q79" t="n">
         <v>36</v>
@@ -7126,17 +7130,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CARRERA IZURIETA MIGUEL ANGEL</t>
+          <t>NOLIVOS VALIENTE JUAN CARLOS</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1718428392</t>
+          <t>1713917589</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>CARRERA IZURIETA MIGUEL ANGEL</t>
+          <t>NOLIVOS VALIENTE JUAN CARLOS</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -7210,17 +7214,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>GRIJALVA VILLEGAS GABRIEL FRANCISCO</t>
+          <t>RUIZ BEDOYA NICOLAS ALEXANDER</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1719003111</t>
+          <t>1718127895</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>GRIJALVA VILLEGAS GABRIEL FRANCISCO</t>
+          <t>RUIZ BEDOYA NICOLAS ALEXANDER</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -7253,13 +7257,13 @@
         <v>976</v>
       </c>
       <c r="O81" t="n">
+        <v>414</v>
+      </c>
+      <c r="P81" t="n">
         <v>360</v>
       </c>
-      <c r="P81" t="n">
-        <v>324</v>
-      </c>
       <c r="Q81" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="R81" s="3" t="inlineStr">
         <is>
@@ -7294,17 +7298,17 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TORRES RIVERA CHRISTIAN OSWALDO</t>
+          <t>ROSERO DAVILA WENDY ADRIANA</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1719347302</t>
+          <t>1718337635</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>TORRES RIVERA CHRISTIAN OSWALDO</t>
+          <t>ROSERO DAVILA WENDY ADRIANA</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -7337,10 +7341,10 @@
         <v>976</v>
       </c>
       <c r="O82" t="n">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="P82" t="n">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="Q82" t="n">
         <v>36</v>
@@ -7378,17 +7382,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>OLMEDO GARCES ANDREA GABRIELA</t>
+          <t>CARRERA IZURIETA MIGUEL ANGEL</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1719904128</t>
+          <t>1718428392</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>OLMEDO GARCES ANDREA GABRIELA</t>
+          <t>CARRERA IZURIETA MIGUEL ANGEL</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -7421,13 +7425,13 @@
         <v>976</v>
       </c>
       <c r="O83" t="n">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="P83" t="n">
         <v>360</v>
       </c>
       <c r="Q83" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="R83" s="3" t="inlineStr">
         <is>
@@ -7462,17 +7466,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PUCHA ATAN FABIAN RODOLFO</t>
+          <t>GRIJALVA VILLEGAS GABRIEL FRANCISCO</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1720693538</t>
+          <t>1719003111</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PUCHA ATAN FABIAN RODOLFO</t>
+          <t>GRIJALVA VILLEGAS GABRIEL FRANCISCO</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -7505,13 +7509,13 @@
         <v>976</v>
       </c>
       <c r="O84" t="n">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="P84" t="n">
         <v>324</v>
       </c>
       <c r="Q84" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="R84" s="3" t="inlineStr">
         <is>
@@ -7546,17 +7550,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CRIOLLO SIMBAÑA TANIA ALEXANDRA</t>
+          <t>TORRES RIVERA CHRISTIAN OSWALDO</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1722635065</t>
+          <t>1719347302</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>CRIOLLO SIMBAÑA TANIA ALEXANDRA</t>
+          <t>TORRES RIVERA CHRISTIAN OSWALDO</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -7574,24 +7578,28 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>46081</v>
+      </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>INGRESADO</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="O85" t="n">
         <v>360</v>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Q85" t="n">
-        <v>360</v>
+        <v>36</v>
       </c>
       <c r="R85" s="3" t="inlineStr">
         <is>
@@ -7626,17 +7634,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>OSORIO QUIROZ MARCOS ALEJANDRO</t>
+          <t>OLMEDO GARCES ANDREA GABRIELA</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1724391378</t>
+          <t>1719904128</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>OSORIO QUIROZ MARCOS ALEJANDRO</t>
+          <t>OLMEDO GARCES ANDREA GABRIELA</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -7669,13 +7677,13 @@
         <v>976</v>
       </c>
       <c r="O86" t="n">
+        <v>414</v>
+      </c>
+      <c r="P86" t="n">
         <v>360</v>
       </c>
-      <c r="P86" t="n">
-        <v>342</v>
-      </c>
       <c r="Q86" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="R86" s="3" t="inlineStr">
         <is>
@@ -7710,17 +7718,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>REVELO CARRANCO JEFFERSON JAVIER</t>
+          <t>PUCHA ATAN FABIAN RODOLFO</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1724463466</t>
+          <t>1720693538</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>REVELO CARRANCO JEFFERSON JAVIER</t>
+          <t>PUCHA ATAN FABIAN RODOLFO</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -7753,13 +7761,13 @@
         <v>976</v>
       </c>
       <c r="O87" t="n">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="P87" t="n">
         <v>324</v>
       </c>
       <c r="Q87" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="R87" s="3" t="inlineStr">
         <is>
@@ -7794,17 +7802,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>AGUILAR ROSERO PAUL SEBASTIAN</t>
+          <t>CRIOLLO SIMBAÑA TANIA ALEXANDRA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1726968611</t>
+          <t>1722635065</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>AGUILAR ROSERO PAUL SEBASTIAN</t>
+          <t>CRIOLLO SIMBAÑA TANIA ALEXANDRA</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -7822,28 +7830,24 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="K88" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="L88" s="2" t="n">
-        <v>46081</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>INGRESADO</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>976</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>432</v>
+        <v>360</v>
       </c>
       <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
         <v>360</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>72</v>
       </c>
       <c r="R88" s="3" t="inlineStr">
         <is>
@@ -7878,17 +7882,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MOLINA PAREDES MARCO ANTONIO</t>
+          <t>OSORIO QUIROZ MARCOS ALEJANDRO</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1803699337</t>
+          <t>1724391378</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>MOLINA PAREDES MARCO ANTONIO</t>
+          <t>OSORIO QUIROZ MARCOS ALEJANDRO</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -7921,13 +7925,13 @@
         <v>976</v>
       </c>
       <c r="O89" t="n">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="P89" t="n">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="Q89" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="R89" s="3" t="inlineStr">
         <is>
@@ -7962,17 +7966,17 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>BEDON GALARZA VERONICA DENNISE</t>
+          <t>REVELO CARRANCO JEFFERSON JAVIER</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1804854667</t>
+          <t>1724463466</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>BEDON GALARZA VERONICA DENNISE</t>
+          <t>REVELO CARRANCO JEFFERSON JAVIER</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -8008,10 +8012,10 @@
         <v>360</v>
       </c>
       <c r="P90" t="n">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="Q90" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="R90" s="3" t="inlineStr">
         <is>
@@ -8036,7 +8040,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -8046,27 +8050,27 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ORTIZ CASTRO JUAN REGULO</t>
+          <t>AGUILAR ROSERO PAUL SEBASTIAN</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1706250824</t>
+          <t>1726968611</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>ORTIZ CASTRO JUAN REGULO</t>
+          <t>AGUILAR ROSERO PAUL SEBASTIAN</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -8074,24 +8078,28 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>46081</v>
+      </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>INGRESADO</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="O91" t="n">
-        <v>216</v>
+        <v>432</v>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="Q91" t="n">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="R91" s="3" t="inlineStr">
         <is>
@@ -8116,7 +8124,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -8126,27 +8134,27 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SANDOVAL PALIS IVAN PATRICIO</t>
+          <t>MOLINA PAREDES MARCO ANTONIO</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1706727276</t>
+          <t>1803699337</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>SANDOVAL PALIS IVAN PATRICIO</t>
+          <t>MOLINA PAREDES MARCO ANTONIO</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -8169,13 +8177,13 @@
         <v>976</v>
       </c>
       <c r="O92" t="n">
-        <v>216</v>
+        <v>378</v>
       </c>
       <c r="P92" t="n">
-        <v>144</v>
+        <v>324</v>
       </c>
       <c r="Q92" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="R92" s="3" t="inlineStr">
         <is>
@@ -8200,7 +8208,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -8210,27 +8218,27 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MANTILLA HIDALGO MONICA ELIZABETH</t>
+          <t>BEDON GALARZA VERONICA DENNISE</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1708605496</t>
+          <t>1804854667</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>MANTILLA HIDALGO MONICA ELIZABETH</t>
+          <t>BEDON GALARZA VERONICA DENNISE</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -8253,13 +8261,13 @@
         <v>976</v>
       </c>
       <c r="O93" t="n">
-        <v>288</v>
+        <v>360</v>
       </c>
       <c r="P93" t="n">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="Q93" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="R93" s="3" t="inlineStr">
         <is>
@@ -8284,7 +8292,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -8294,27 +8302,27 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MONTENEGRO VILLARREAL JESSICA ALEXANDRA</t>
+          <t>ORTIZ CASTRO JUAN REGULO</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0401036272</t>
+          <t>1706250824</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>MONTENEGRO VILLARREAL JESSICA ALEXANDRA</t>
+          <t>ORTIZ CASTRO JUAN REGULO</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -8322,28 +8330,24 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="K94" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="L94" s="2" t="n">
-        <v>46081</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>INGRESADO</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>976</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="P94" t="n">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="R94" s="3" t="inlineStr">
         <is>
@@ -8368,7 +8372,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -8378,27 +8382,27 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>VALLEJO PEREZ MARIA JOSE</t>
+          <t>SANDOVAL PALIS IVAN PATRICIO</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1003089834</t>
+          <t>1706727276</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>VALLEJO PEREZ MARIA JOSE</t>
+          <t>SANDOVAL PALIS IVAN PATRICIO</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -8421,10 +8425,10 @@
         <v>976</v>
       </c>
       <c r="O95" t="n">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="P95" t="n">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="Q95" t="n">
         <v>72</v>
@@ -8447,7 +8451,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE GEOLOGIA</t>
+          <t>DEPARTAMENTO DE FORMACION BASICA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -8462,17 +8466,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SANTAMARIA FREIRE SANTIAGO DAVID</t>
+          <t>MANTILLA HIDALGO MONICA ELIZABETH</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1803438124</t>
+          <t>1708605496</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>SANTAMARIA FREIRE SANTIAGO DAVID</t>
+          <t>MANTILLA HIDALGO MONICA ELIZABETH</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -8498,7 +8502,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>PLANIFICADO INICIAL</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N96" t="n">
@@ -8508,10 +8512,10 @@
         <v>288</v>
       </c>
       <c r="P96" t="n">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="Q96" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="R96" s="3" t="inlineStr">
         <is>
@@ -8531,12 +8535,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE GEOLOGIA</t>
+          <t>DEPARTAMENTO DE FORMACION BASICA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -8546,27 +8550,27 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>BERNAL CARRERA ISABEL CAROLINA</t>
+          <t>MONTENEGRO VILLARREAL JESSICA ALEXANDRA</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1712429859</t>
+          <t>0401036272</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>BERNAL CARRERA ISABEL CAROLINA</t>
+          <t>MONTENEGRO VILLARREAL JESSICA ALEXANDRA</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -8582,20 +8586,20 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR PROFESOR INICIAL</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N97" t="n">
         <v>976</v>
       </c>
       <c r="O97" t="n">
-        <v>252</v>
+        <v>360</v>
       </c>
       <c r="P97" t="n">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="Q97" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="R97" s="3" t="inlineStr">
         <is>
@@ -8615,47 +8619,47 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE GEOLOGIA</t>
+          <t>DEPARTAMENTO DE FORMACION BASICA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>VALLEJO CRUZ CRISTIAN FERNANDO</t>
+          <t>VALLEJO PEREZ MARIA JOSE</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1711627263</t>
+          <t>1003089834</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>VALLEJO CRUZ CRISTIAN FERNANDO</t>
+          <t>VALLEJO PEREZ MARIA JOSE</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="K98" s="2" t="n">
@@ -8666,20 +8670,20 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>PLANIFICADO INICIAL</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>464</v>
+        <v>976</v>
       </c>
       <c r="O98" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="P98" t="n">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="Q98" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="R98" s="3" t="inlineStr">
         <is>
@@ -8704,7 +8708,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -8714,27 +8718,27 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>RAMOS GALARZA SANTIAGO ISMAEL</t>
+          <t>SANTAMARIA FREIRE SANTIAGO DAVID</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1721931275</t>
+          <t>1803438124</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>RAMOS GALARZA SANTIAGO ISMAEL</t>
+          <t>SANTAMARIA FREIRE SANTIAGO DAVID</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8742,24 +8746,28 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>46081</v>
+      </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>INGRESADO</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="O99" t="n">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="Q99" t="n">
-        <v>324</v>
+        <v>18</v>
       </c>
       <c r="R99" s="3" t="inlineStr">
         <is>
@@ -8784,7 +8792,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -8794,27 +8802,27 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>OROZCO PILATAXI ALEXANDRA ELIZABETH</t>
+          <t>BERNAL CARRERA ISABEL CAROLINA</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1723505119</t>
+          <t>1712429859</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>OROZCO PILATAXI ALEXANDRA ELIZABETH</t>
+          <t>BERNAL CARRERA ISABEL CAROLINA</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -8830,20 +8838,20 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR INICIAL</t>
+          <t>POR RECTIFICAR PROFESOR INICIAL</t>
         </is>
       </c>
       <c r="N100" t="n">
         <v>976</v>
       </c>
       <c r="O100" t="n">
-        <v>344</v>
+        <v>252</v>
       </c>
       <c r="P100" t="n">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="Q100" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="R100" s="3" t="inlineStr">
         <is>
@@ -8863,7 +8871,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE INFORMATICA Y CIENCIAS DE LA COMPUTACION</t>
+          <t>DEPARTAMENTO DE GEOLOGIA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -8873,22 +8881,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SAYAGO HEREDIA JAIME PAUL</t>
+          <t>VALLEJO CRUZ CRISTIAN FERNANDO</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0301435012</t>
+          <t>1711627263</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>SAYAGO HEREDIA JAIME PAUL</t>
+          <t>VALLEJO CRUZ CRISTIAN FERNANDO</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -8903,7 +8911,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="K101" s="2" t="n">
@@ -8914,20 +8922,20 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>976</v>
+        <v>464</v>
       </c>
       <c r="O101" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="P101" t="n">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="Q101" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="R101" s="3" t="inlineStr">
         <is>
@@ -8947,12 +8955,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE INFORMATICA Y CIENCIAS DE LA COMPUTACION</t>
+          <t>DEPARTAMENTO DE GEOLOGIA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -8962,27 +8970,27 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>VELEPUCHA BONETT VICTOR VICENTE</t>
+          <t>RAMOS GALARZA SANTIAGO ISMAEL</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0703452169</t>
+          <t>1721931275</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>VELEPUCHA BONETT VICTOR VICENTE</t>
+          <t>RAMOS GALARZA SANTIAGO ISMAEL</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -8990,28 +8998,24 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="K102" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="L102" s="2" t="n">
-        <v>46081</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>INGRESADO</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>976</v>
+        <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="P102" t="n">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="Q102" t="n">
-        <v>72</v>
+        <v>324</v>
       </c>
       <c r="R102" s="3" t="inlineStr">
         <is>
@@ -9031,12 +9035,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE INFORMATICA Y CIENCIAS DE LA COMPUTACION</t>
+          <t>DEPARTAMENTO DE GEOLOGIA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -9046,27 +9050,27 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>HERRERA GRANDA ERICK PATRICIO</t>
+          <t>OROZCO PILATAXI ALEXANDRA ELIZABETH</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1003850136</t>
+          <t>1723505119</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>HERRERA GRANDA ERICK PATRICIO</t>
+          <t>OROZCO PILATAXI ALEXANDRA ELIZABETH</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -9089,13 +9093,13 @@
         <v>976</v>
       </c>
       <c r="O103" t="n">
+        <v>344</v>
+      </c>
+      <c r="P103" t="n">
         <v>324</v>
       </c>
-      <c r="P103" t="n">
-        <v>306</v>
-      </c>
       <c r="Q103" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R103" s="3" t="inlineStr">
         <is>
@@ -9130,17 +9134,17 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>VALDIVIESO CARAGUAY ANGEL LEONARDO</t>
+          <t>SAYAGO HEREDIA JAIME PAUL</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1103731251</t>
+          <t>0301435012</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>VALDIVIESO CARAGUAY ANGEL LEONARDO</t>
+          <t>SAYAGO HEREDIA JAIME PAUL</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -9166,20 +9170,20 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N104" t="n">
         <v>976</v>
       </c>
       <c r="O104" t="n">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="P104" t="n">
         <v>252</v>
       </c>
       <c r="Q104" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="R104" s="3" t="inlineStr">
         <is>
@@ -9214,17 +9218,17 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>LUCIO NARANJO JOSE FRANCISCO</t>
+          <t>VELEPUCHA BONETT VICTOR VICENTE</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1707211742</t>
+          <t>0703452169</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>LUCIO NARANJO JOSE FRANCISCO</t>
+          <t>VELEPUCHA BONETT VICTOR VICENTE</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -9250,20 +9254,20 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N105" t="n">
         <v>976</v>
       </c>
       <c r="O105" t="n">
-        <v>162</v>
+        <v>378</v>
       </c>
       <c r="P105" t="n">
-        <v>144</v>
+        <v>306</v>
       </c>
       <c r="Q105" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="R105" s="3" t="inlineStr">
         <is>
@@ -9298,17 +9302,17 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>SANCHEZ GORDON SANDRA PATRICIA</t>
+          <t>HERRERA GRANDA ERICK PATRICIO</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1709873747</t>
+          <t>1003850136</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>SANCHEZ GORDON SANDRA PATRICIA</t>
+          <t>HERRERA GRANDA ERICK PATRICIO</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -9334,20 +9338,20 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N106" t="n">
         <v>976</v>
       </c>
       <c r="O106" t="n">
-        <v>226</v>
+        <v>324</v>
       </c>
       <c r="P106" t="n">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="Q106" t="n">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="R106" s="3" t="inlineStr">
         <is>
@@ -9382,17 +9386,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>SANCHEZ AGUAYO MARCO POLO</t>
+          <t>VALDIVIESO CARAGUAY ANGEL LEONARDO</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1711881977</t>
+          <t>1103731251</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>SANCHEZ AGUAYO MARCO POLO</t>
+          <t>VALDIVIESO CARAGUAY ANGEL LEONARDO</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -9418,20 +9422,20 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N107" t="n">
         <v>976</v>
       </c>
       <c r="O107" t="n">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="P107" t="n">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="Q107" t="n">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="R107" s="3" t="inlineStr">
         <is>
@@ -9466,17 +9470,17 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CALLE JIMENEZ TANIA ELIZABETH</t>
+          <t>LUCIO NARANJO JOSE FRANCISCO</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1716247257</t>
+          <t>1707211742</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>CALLE JIMENEZ TANIA ELIZABETH</t>
+          <t>LUCIO NARANJO JOSE FRANCISCO</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -9509,13 +9513,13 @@
         <v>976</v>
       </c>
       <c r="O108" t="n">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="P108" t="n">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="Q108" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="R108" s="3" t="inlineStr">
         <is>
@@ -9550,17 +9554,17 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FLORES NARANJO PAMELA CATHERINE</t>
+          <t>SANCHEZ GORDON SANDRA PATRICIA</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1716270838</t>
+          <t>1709873747</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>FLORES NARANJO PAMELA CATHERINE</t>
+          <t>SANCHEZ GORDON SANDRA PATRICIA</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -9586,20 +9590,20 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N109" t="n">
         <v>976</v>
       </c>
       <c r="O109" t="n">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="P109" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="Q109" t="n">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="R109" s="3" t="inlineStr">
         <is>
@@ -9634,17 +9638,17 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ZAMBRANO RODRIGUEZ PATRICIO XAVIER</t>
+          <t>SANCHEZ AGUAYO MARCO POLO</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1716942964</t>
+          <t>1711881977</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>ZAMBRANO RODRIGUEZ PATRICIO XAVIER</t>
+          <t>SANCHEZ AGUAYO MARCO POLO</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -9670,20 +9674,20 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N110" t="n">
         <v>976</v>
       </c>
       <c r="O110" t="n">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="P110" t="n">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="Q110" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="R110" s="3" t="inlineStr">
         <is>
@@ -9718,17 +9722,17 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>GALINDO LOSADA JULIAN ANDRES</t>
+          <t>CALLE JIMENEZ TANIA ELIZABETH</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1717537474</t>
+          <t>1716247257</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>GALINDO LOSADA JULIAN ANDRES</t>
+          <t>CALLE JIMENEZ TANIA ELIZABETH</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -9754,7 +9758,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N111" t="n">
@@ -9802,17 +9806,17 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>MARTINEZ MOSQUERA SILVIA DIANA</t>
+          <t>FLORES NARANJO PAMELA CATHERINE</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1718478603</t>
+          <t>1716270838</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>MARTINEZ MOSQUERA SILVIA DIANA</t>
+          <t>FLORES NARANJO PAMELA CATHERINE</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -9838,20 +9842,20 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N112" t="n">
         <v>976</v>
       </c>
       <c r="O112" t="n">
-        <v>342</v>
+        <v>190</v>
       </c>
       <c r="P112" t="n">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="Q112" t="n">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="R112" s="3" t="inlineStr">
         <is>
@@ -9886,17 +9890,17 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>RECALDE CERDA LORENA KATHERINE</t>
+          <t>ZAMBRANO RODRIGUEZ PATRICIO XAVIER</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1720035789</t>
+          <t>1716942964</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>RECALDE CERDA LORENA KATHERINE</t>
+          <t>ZAMBRANO RODRIGUEZ PATRICIO XAVIER</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -9922,20 +9926,20 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>ENVIADO INICIAL</t>
         </is>
       </c>
       <c r="N113" t="n">
         <v>976</v>
       </c>
       <c r="O113" t="n">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="P113" t="n">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="Q113" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="R113" s="3" t="inlineStr">
         <is>
@@ -9970,17 +9974,17 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>BARONA LOPEZ LORENA ISABEL</t>
+          <t>GALINDO LOSADA JULIAN ANDRES</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1803705480</t>
+          <t>1717537474</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>BARONA LOPEZ LORENA ISABEL</t>
+          <t>GALINDO LOSADA JULIAN ANDRES</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -10006,20 +10010,20 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N114" t="n">
         <v>976</v>
       </c>
       <c r="O114" t="n">
-        <v>342</v>
+        <v>234</v>
       </c>
       <c r="P114" t="n">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="Q114" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="R114" s="3" t="inlineStr">
         <is>
@@ -10044,7 +10048,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -10054,27 +10058,27 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>DEL HIERRO CADENA PABLO FERNANDO</t>
+          <t>MARTINEZ MOSQUERA SILVIA DIANA</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1714130562</t>
+          <t>1718478603</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>DEL HIERRO CADENA PABLO FERNANDO</t>
+          <t>MARTINEZ MOSQUERA SILVIA DIANA</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -10090,7 +10094,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N115" t="n">
@@ -10100,10 +10104,10 @@
         <v>342</v>
       </c>
       <c r="P115" t="n">
-        <v>324</v>
+        <v>180</v>
       </c>
       <c r="Q115" t="n">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="R115" s="3" t="inlineStr">
         <is>
@@ -10128,7 +10132,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -10138,27 +10142,27 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>RIVERA GUEVARA RICHARD PAUL</t>
+          <t>RECALDE CERDA LORENA KATHERINE</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1717160533</t>
+          <t>1720035789</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>RIVERA GUEVARA RICHARD PAUL</t>
+          <t>RECALDE CERDA LORENA KATHERINE</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -10174,20 +10178,20 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N116" t="n">
         <v>976</v>
       </c>
       <c r="O116" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="P116" t="n">
-        <v>342</v>
+        <v>180</v>
       </c>
       <c r="Q116" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="R116" s="3" t="inlineStr">
         <is>
@@ -10212,7 +10216,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -10222,27 +10226,27 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>EGUEZ SARZOSA VICENTE ADRIAN</t>
+          <t>BARONA LOPEZ LORENA ISABEL</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1718137159</t>
+          <t>1803705480</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>EGUEZ SARZOSA VICENTE ADRIAN</t>
+          <t>BARONA LOPEZ LORENA ISABEL</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -10265,13 +10269,13 @@
         <v>976</v>
       </c>
       <c r="O117" t="n">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="P117" t="n">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="Q117" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="R117" s="3" t="inlineStr">
         <is>
@@ -10306,17 +10310,17 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>PARRAGA VILLAMAR VIVIANA CRISTINA</t>
+          <t>DEL HIERRO CADENA PABLO FERNANDO</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1721903407</t>
+          <t>1714130562</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>PARRAGA VILLAMAR VIVIANA CRISTINA</t>
+          <t>DEL HIERRO CADENA PABLO FERNANDO</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -10349,13 +10353,13 @@
         <v>976</v>
       </c>
       <c r="O118" t="n">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="P118" t="n">
         <v>324</v>
       </c>
       <c r="Q118" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="R118" s="3" t="inlineStr">
         <is>
@@ -10390,17 +10394,17 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ORDOÑEZ CALERO HERNAN DAVID</t>
+          <t>RIVERA GUEVARA RICHARD PAUL</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1722511001</t>
+          <t>1717160533</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>ORDOÑEZ CALERO HERNAN DAVID</t>
+          <t>RIVERA GUEVARA RICHARD PAUL</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -10426,17 +10430,17 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N119" t="n">
         <v>976</v>
       </c>
       <c r="O119" t="n">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="P119" t="n">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="Q119" t="n">
         <v>18</v>
@@ -10459,12 +10463,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE INGENIERIA CIVIL Y AMBIENTAL</t>
+          <t>DEPARTAMENTO DE INFORMATICA Y CIENCIAS DE LA COMPUTACION</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -10474,27 +10478,27 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>BALAREZO AGUILAR ANA LUCIA</t>
+          <t>EGUEZ SARZOSA VICENTE ADRIAN</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0200590099</t>
+          <t>1718137159</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>BALAREZO AGUILAR ANA LUCIA</t>
+          <t>EGUEZ SARZOSA VICENTE ADRIAN</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -10502,24 +10506,28 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>46081</v>
+      </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>INGRESADO</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="O120" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="P120" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Q120" t="n">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="R120" s="3" t="inlineStr">
         <is>
@@ -10539,12 +10547,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE INGENIERIA CIVIL Y AMBIENTAL</t>
+          <t>DEPARTAMENTO DE INFORMATICA Y CIENCIAS DE LA COMPUTACION</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -10554,27 +10562,27 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>VILLACIS ERAZO MARCOS JOSHUA</t>
+          <t>PARRAGA VILLAMAR VIVIANA CRISTINA</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1307185569</t>
+          <t>1721903407</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>VILLACIS ERAZO MARCOS JOSHUA</t>
+          <t>PARRAGA VILLAMAR VIVIANA CRISTINA</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -10590,20 +10598,20 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N121" t="n">
         <v>976</v>
       </c>
       <c r="O121" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="P121" t="n">
-        <v>154</v>
+        <v>324</v>
       </c>
       <c r="Q121" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="R121" s="3" t="inlineStr">
         <is>
@@ -10623,12 +10631,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE INGENIERIA CIVIL Y AMBIENTAL</t>
+          <t>DEPARTAMENTO DE INFORMATICA Y CIENCIAS DE LA COMPUTACION</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -10638,27 +10646,27 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>PAEZ PEREZ CARLOS LUIS</t>
+          <t>ORDOÑEZ CALERO HERNAN DAVID</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1708213317</t>
+          <t>1722511001</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>PAEZ PEREZ CARLOS LUIS</t>
+          <t>ORDOÑEZ CALERO HERNAN DAVID</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -10674,20 +10682,20 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N122" t="n">
         <v>976</v>
       </c>
       <c r="O122" t="n">
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="P122" t="n">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="Q122" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="R122" s="3" t="inlineStr">
         <is>
@@ -10722,17 +10730,17 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MONTENEGRO AGUAS LUCIA MARGARITA</t>
+          <t>BALAREZO AGUILAR ANA LUCIA</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1710235217</t>
+          <t>0200590099</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>MONTENEGRO AGUAS LUCIA MARGARITA</t>
+          <t>BALAREZO AGUILAR ANA LUCIA</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -10750,28 +10758,24 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="K123" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="L123" s="2" t="n">
-        <v>46081</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
           <t>INGRESADO</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>976</v>
+        <v>0</v>
       </c>
       <c r="O123" t="n">
         <v>270</v>
       </c>
       <c r="P123" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Q123" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="R123" s="3" t="inlineStr">
         <is>
@@ -10806,17 +10810,17 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MORA MARTINEZ EDGAR DAVID</t>
+          <t>VILLACIS ERAZO MARCOS JOSHUA</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1715204952</t>
+          <t>1307185569</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>MORA MARTINEZ EDGAR DAVID</t>
+          <t>VILLACIS ERAZO MARCOS JOSHUA</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -10842,20 +10846,20 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N124" t="n">
         <v>976</v>
       </c>
       <c r="O124" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P124" t="n">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="Q124" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="R124" s="3" t="inlineStr">
         <is>
@@ -10890,17 +10894,17 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>HAMAD MOHAMED KHALED MOHAMED AHMED</t>
+          <t>PAEZ PEREZ CARLOS LUIS</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1722327226</t>
+          <t>1708213317</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>HAMAD MOHAMED KHALED MOHAMED AHMED</t>
+          <t>PAEZ PEREZ CARLOS LUIS</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -10926,20 +10930,20 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N125" t="n">
         <v>976</v>
       </c>
       <c r="O125" t="n">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="P125" t="n">
         <v>216</v>
       </c>
       <c r="Q125" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="R125" s="3" t="inlineStr">
         <is>
@@ -10974,17 +10978,17 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>VILLACIS TRONCOSO EUGENIA DE LAS MERCEDES</t>
+          <t>MONTENEGRO AGUAS LUCIA MARGARITA</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1802760940</t>
+          <t>1710235217</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>VILLACIS TRONCOSO EUGENIA DE LAS MERCEDES</t>
+          <t>MONTENEGRO AGUAS LUCIA MARGARITA</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -11010,20 +11014,20 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>INGRESADO</t>
         </is>
       </c>
       <c r="N126" t="n">
         <v>976</v>
       </c>
       <c r="O126" t="n">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="P126" t="n">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="Q126" t="n">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="R126" s="3" t="inlineStr">
         <is>
@@ -11053,22 +11057,22 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>AVILA VEGA CARLOS FABIAN</t>
+          <t>MORA MARTINEZ EDGAR DAVID</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1001711405</t>
+          <t>1715204952</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>AVILA VEGA CARLOS FABIAN</t>
+          <t>MORA MARTINEZ EDGAR DAVID</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -11083,7 +11087,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="K127" s="2" t="n">
@@ -11094,20 +11098,20 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>464</v>
+        <v>976</v>
       </c>
       <c r="O127" t="n">
+        <v>216</v>
+      </c>
+      <c r="P127" t="n">
         <v>180</v>
       </c>
-      <c r="P127" t="n">
-        <v>162</v>
-      </c>
       <c r="Q127" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="R127" s="3" t="inlineStr">
         <is>
@@ -11132,7 +11136,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -11142,27 +11146,27 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MORALES CASA VERONICA ELIZABETH</t>
+          <t>HAMAD MOHAMED KHALED MOHAMED AHMED</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1713915757</t>
+          <t>1722327226</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>MORALES CASA VERONICA ELIZABETH</t>
+          <t>HAMAD MOHAMED KHALED MOHAMED AHMED</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -11178,20 +11182,20 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N128" t="n">
         <v>976</v>
       </c>
       <c r="O128" t="n">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="P128" t="n">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="Q128" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="R128" s="3" t="inlineStr">
         <is>
@@ -11216,7 +11220,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -11226,27 +11230,27 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>AYALA MOYA CARLOS ALEXIS</t>
+          <t>VILLACIS TRONCOSO EUGENIA DE LAS MERCEDES</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>1712968971</t>
+          <t>1802760940</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>AYALA MOYA CARLOS ALEXIS</t>
+          <t>VILLACIS TRONCOSO EUGENIA DE LAS MERCEDES</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -11262,20 +11266,20 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>INGRESADO</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N129" t="n">
         <v>976</v>
       </c>
       <c r="O129" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="P129" t="n">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="Q129" t="n">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="R129" s="3" t="inlineStr">
         <is>
@@ -11300,42 +11304,42 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>GUERRERO YEPEZ PAOLA ANDREA</t>
+          <t>AVILA VEGA CARLOS FABIAN</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0401847900</t>
+          <t>1001711405</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>GUERRERO YEPEZ PAOLA ANDREA</t>
+          <t>AVILA VEGA CARLOS FABIAN</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="K130" s="2" t="n">
@@ -11346,17 +11350,17 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>976</v>
+        <v>464</v>
       </c>
       <c r="O130" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="P130" t="n">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="Q130" t="n">
         <v>18</v>
@@ -11379,12 +11383,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE INGENIERIA MECANICA</t>
+          <t>DEPARTAMENTO DE INGENIERIA CIVIL Y AMBIENTAL</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -11394,27 +11398,27 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>PORTILLA AGUILAR ANGEL ADALBERTO</t>
+          <t>MORALES CASA VERONICA ELIZABETH</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0400588273</t>
+          <t>1713915757</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>PORTILLA AGUILAR ANGEL ADALBERTO</t>
+          <t>MORALES CASA VERONICA ELIZABETH</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -11430,20 +11434,20 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>PLANIFICADO INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N131" t="n">
         <v>976</v>
       </c>
       <c r="O131" t="n">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="P131" t="n">
-        <v>162</v>
+        <v>296</v>
       </c>
       <c r="Q131" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="R131" s="3" t="inlineStr">
         <is>
@@ -11463,12 +11467,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE INGENIERIA MECANICA</t>
+          <t>DEPARTAMENTO DE INGENIERIA CIVIL Y AMBIENTAL</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -11478,27 +11482,27 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ROJAS MOLINA ROBERTO CARLOS</t>
+          <t>AYALA MOYA CARLOS ALEXIS</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0502343148</t>
+          <t>1712968971</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>ROJAS MOLINA ROBERTO CARLOS</t>
+          <t>AYALA MOYA CARLOS ALEXIS</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -11514,20 +11518,20 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR INICIAL</t>
+          <t>INGRESADO</t>
         </is>
       </c>
       <c r="N132" t="n">
         <v>976</v>
       </c>
       <c r="O132" t="n">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="P132" t="n">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="Q132" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="R132" s="3" t="inlineStr">
         <is>
@@ -11547,12 +11551,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE INGENIERIA MECANICA</t>
+          <t>DEPARTAMENTO DE INGENIERIA CIVIL Y AMBIENTAL</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -11562,27 +11566,27 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>CESEN ARTEAGA MARIO ALBERTO</t>
+          <t>GUERRERO YEPEZ PAOLA ANDREA</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0602092686</t>
+          <t>0401847900</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>CESEN ARTEAGA MARIO ALBERTO</t>
+          <t>GUERRERO YEPEZ PAOLA ANDREA</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -11605,10 +11609,10 @@
         <v>976</v>
       </c>
       <c r="O133" t="n">
-        <v>288</v>
+        <v>360</v>
       </c>
       <c r="P133" t="n">
-        <v>270</v>
+        <v>342</v>
       </c>
       <c r="Q133" t="n">
         <v>18</v>
@@ -11646,17 +11650,17 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ANDRADE ACOSTA LUIS GILMOUR</t>
+          <t>PORTILLA AGUILAR ANGEL ADALBERTO</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1002980223</t>
+          <t>0400588273</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>ANDRADE ACOSTA LUIS GILMOUR</t>
+          <t>PORTILLA AGUILAR ANGEL ADALBERTO</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -11689,13 +11693,13 @@
         <v>976</v>
       </c>
       <c r="O134" t="n">
-        <v>350</v>
+        <v>216</v>
       </c>
       <c r="P134" t="n">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="Q134" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="R134" s="3" t="inlineStr">
         <is>
@@ -11730,17 +11734,17 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SOTO AYMAR LUIS RICARDO</t>
+          <t>ROJAS MOLINA ROBERTO CARLOS</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1101745212</t>
+          <t>0502343148</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>SOTO AYMAR LUIS RICARDO</t>
+          <t>ROJAS MOLINA ROBERTO CARLOS</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -11766,20 +11770,20 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N135" t="n">
         <v>976</v>
       </c>
       <c r="O135" t="n">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="P135" t="n">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="Q135" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="R135" s="3" t="inlineStr">
         <is>
@@ -11814,17 +11818,17 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ORDOÑEZ MALLA FREDDY GEOVANNY</t>
+          <t>CESEN ARTEAGA MARIO ALBERTO</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1103220339</t>
+          <t>0602092686</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>ORDOÑEZ MALLA FREDDY GEOVANNY</t>
+          <t>CESEN ARTEAGA MARIO ALBERTO</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -11842,24 +11846,28 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>46081</v>
+      </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>INGRESADO</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="O136" t="n">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="P136" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="Q136" t="n">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="R136" s="3" t="inlineStr">
         <is>
@@ -11894,17 +11902,17 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>YANEZ SALCEDO MARCO VINICIO</t>
+          <t>ANDRADE ACOSTA LUIS GILMOUR</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1705124525</t>
+          <t>1002980223</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>YANEZ SALCEDO MARCO VINICIO</t>
+          <t>ANDRADE ACOSTA LUIS GILMOUR</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -11930,20 +11938,20 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N137" t="n">
         <v>976</v>
       </c>
       <c r="O137" t="n">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="P137" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q137" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="R137" s="3" t="inlineStr">
         <is>
@@ -11978,17 +11986,17 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SUNTAXI GUALLICHICO SEGUNDO CARLOS</t>
+          <t>SOTO AYMAR LUIS RICARDO</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1713075776</t>
+          <t>1101745212</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>SUNTAXI GUALLICHICO SEGUNDO CARLOS</t>
+          <t>SOTO AYMAR LUIS RICARDO</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -12014,17 +12022,17 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>PLANIFICADO INICIAL</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N138" t="n">
         <v>976</v>
       </c>
       <c r="O138" t="n">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="P138" t="n">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="Q138" t="n">
         <v>18</v>
@@ -12062,17 +12070,17 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>HIDALGO DIAZ VICTOR HUGO</t>
+          <t>ORDOÑEZ MALLA FREDDY GEOVANNY</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1715476758</t>
+          <t>1103220339</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>HIDALGO DIAZ VICTOR HUGO</t>
+          <t>ORDOÑEZ MALLA FREDDY GEOVANNY</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -12090,28 +12098,24 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="K139" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="L139" s="2" t="n">
-        <v>46081</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
-          <t>PLANIFICADO INICIAL</t>
+          <t>INGRESADO</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>976</v>
+        <v>0</v>
       </c>
       <c r="O139" t="n">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="P139" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="Q139" t="n">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="R139" s="3" t="inlineStr">
         <is>
@@ -12146,17 +12150,17 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>CANDO NARVAEZ EDGAR HERNAN</t>
+          <t>YANEZ SALCEDO MARCO VINICIO</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1715981898</t>
+          <t>1705124525</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>CANDO NARVAEZ EDGAR HERNAN</t>
+          <t>YANEZ SALCEDO MARCO VINICIO</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -12182,17 +12186,17 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>PLANIFICADO INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N140" t="n">
         <v>976</v>
       </c>
       <c r="O140" t="n">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="P140" t="n">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="Q140" t="n">
         <v>18</v>
@@ -12230,17 +12234,17 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>VACA JIMENEZ SANTIAGO DAVID</t>
+          <t>SUNTAXI GUALLICHICO SEGUNDO CARLOS</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1715989487</t>
+          <t>1713075776</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>VACA JIMENEZ SANTIAGO DAVID</t>
+          <t>SUNTAXI GUALLICHICO SEGUNDO CARLOS</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -12273,13 +12277,13 @@
         <v>976</v>
       </c>
       <c r="O141" t="n">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="P141" t="n">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="Q141" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="R141" s="3" t="inlineStr">
         <is>
@@ -12314,17 +12318,17 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>GUACHAMIN ACERO WILSON IVAN</t>
+          <t>HIDALGO DIAZ VICTOR HUGO</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1716113533</t>
+          <t>1715476758</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>GUACHAMIN ACERO WILSON IVAN</t>
+          <t>HIDALGO DIAZ VICTOR HUGO</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -12357,13 +12361,13 @@
         <v>976</v>
       </c>
       <c r="O142" t="n">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="P142" t="n">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="Q142" t="n">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="R142" s="3" t="inlineStr">
         <is>
@@ -12398,17 +12402,17 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>VALENCIA TORRES ESTEBAN ALEJANDRO</t>
+          <t>CANDO NARVAEZ EDGAR HERNAN</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1716298276</t>
+          <t>1715981898</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>VALENCIA TORRES ESTEBAN ALEJANDRO</t>
+          <t>CANDO NARVAEZ EDGAR HERNAN</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -12434,17 +12438,17 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N143" t="n">
         <v>976</v>
       </c>
       <c r="O143" t="n">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="P143" t="n">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="Q143" t="n">
         <v>18</v>
@@ -12482,17 +12486,17 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ALVAREZ BRICEÑO RICARDO PATRICIO</t>
+          <t>VACA JIMENEZ SANTIAGO DAVID</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1719675967</t>
+          <t>1715989487</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>ALVAREZ BRICEÑO RICARDO PATRICIO</t>
+          <t>VACA JIMENEZ SANTIAGO DAVID</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -12518,20 +12522,20 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N144" t="n">
         <v>976</v>
       </c>
       <c r="O144" t="n">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="P144" t="n">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="Q144" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R144" s="3" t="inlineStr">
         <is>
@@ -12566,17 +12570,17 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>TORRES CHAMORRO LISBETH ALEJANDRA</t>
+          <t>GUACHAMIN ACERO WILSON IVAN</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0401465695</t>
+          <t>1716113533</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>TORRES CHAMORRO LISBETH ALEJANDRA</t>
+          <t>GUACHAMIN ACERO WILSON IVAN</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -12609,13 +12613,13 @@
         <v>976</v>
       </c>
       <c r="O145" t="n">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="P145" t="n">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="Q145" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="R145" s="3" t="inlineStr">
         <is>
@@ -12640,7 +12644,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -12650,27 +12654,27 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>GUAMAN ALARCON MARCO VINICIO</t>
+          <t>VALENCIA TORRES ESTEBAN ALEJANDRO</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1002686341</t>
+          <t>1716298276</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>GUAMAN ALARCON MARCO VINICIO</t>
+          <t>VALENCIA TORRES ESTEBAN ALEJANDRO</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -12678,24 +12682,28 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="L146" s="2" t="n">
+        <v>46081</v>
+      </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>INGRESADO</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="O146" t="n">
-        <v>318</v>
+        <v>174</v>
       </c>
       <c r="P146" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="Q146" t="n">
-        <v>318</v>
+        <v>18</v>
       </c>
       <c r="R146" s="3" t="inlineStr">
         <is>
@@ -12720,7 +12728,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -12730,27 +12738,27 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>DE LA CRUZ GUEVARA DANNI RODRIGO</t>
+          <t>ALVAREZ BRICEÑO RICARDO PATRICIO</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1712550308</t>
+          <t>1719675967</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>DE LA CRUZ GUEVARA DANNI RODRIGO</t>
+          <t>ALVAREZ BRICEÑO RICARDO PATRICIO</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -12766,20 +12774,20 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N147" t="n">
         <v>976</v>
       </c>
       <c r="O147" t="n">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="P147" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q147" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="R147" s="3" t="inlineStr">
         <is>
@@ -12804,7 +12812,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -12814,27 +12822,27 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ALMACHI NACIMBA JUAN CARLOS</t>
+          <t>TORRES CHAMORRO LISBETH ALEJANDRA</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1720591138</t>
+          <t>0401465695</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>ALMACHI NACIMBA JUAN CARLOS</t>
+          <t>TORRES CHAMORRO LISBETH ALEJANDRA</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -12850,7 +12858,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N148" t="n">
@@ -12860,10 +12868,10 @@
         <v>360</v>
       </c>
       <c r="P148" t="n">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q148" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="R148" s="3" t="inlineStr">
         <is>
@@ -12898,17 +12906,17 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>VILLARRUEL JARAMILLO ANDRES FABRICIO</t>
+          <t>GUAMAN ALARCON MARCO VINICIO</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1723147185</t>
+          <t>1002686341</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>VILLARRUEL JARAMILLO ANDRES FABRICIO</t>
+          <t>GUAMAN ALARCON MARCO VINICIO</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -12926,28 +12934,24 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="K149" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="L149" s="2" t="n">
-        <v>46081</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>INGRESADO</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>976</v>
+        <v>0</v>
       </c>
       <c r="O149" t="n">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="P149" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="Q149" t="n">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="R149" s="3" t="inlineStr">
         <is>
@@ -12967,12 +12971,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE INGENIERIA QUIMICA</t>
+          <t>DEPARTAMENTO DE INGENIERIA MECANICA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -12982,27 +12986,27 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>SALVADOR QUIÑONES MARCELO FERNANDO</t>
+          <t>DE LA CRUZ GUEVARA DANNI RODRIGO</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1708564727</t>
+          <t>1712550308</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>SALVADOR QUIÑONES MARCELO FERNANDO</t>
+          <t>DE LA CRUZ GUEVARA DANNI RODRIGO</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -13014,7 +13018,7 @@
         <v>45901</v>
       </c>
       <c r="L150" s="2" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
@@ -13022,16 +13026,16 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="O150" t="n">
-        <v>286</v>
+        <v>360</v>
       </c>
       <c r="P150" t="n">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="Q150" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="R150" s="3" t="inlineStr">
         <is>
@@ -13051,12 +13055,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE INGENIERIA QUIMICA</t>
+          <t>DEPARTAMENTO DE INGENIERIA MECANICA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -13066,27 +13070,27 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>RIOFRIO ALMEIDA MARIA CRISTINA</t>
+          <t>ALMACHI NACIMBA JUAN CARLOS</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1709570590</t>
+          <t>1720591138</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>RIOFRIO ALMEIDA MARIA CRISTINA</t>
+          <t>ALMACHI NACIMBA JUAN CARLOS</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -13102,20 +13106,20 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N151" t="n">
         <v>976</v>
       </c>
       <c r="O151" t="n">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="P151" t="n">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="Q151" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="R151" s="3" t="inlineStr">
         <is>
@@ -13135,12 +13139,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE INGENIERIA QUIMICA</t>
+          <t>DEPARTAMENTO DE INGENIERIA MECANICA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -13150,27 +13154,27 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>GUZMAN BECKMANN LILIANA</t>
+          <t>VILLARRUEL JARAMILLO ANDRES FABRICIO</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1713930632</t>
+          <t>1723147185</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>GUZMAN BECKMANN LILIANA</t>
+          <t>VILLARRUEL JARAMILLO ANDRES FABRICIO</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -13193,13 +13197,13 @@
         <v>976</v>
       </c>
       <c r="O152" t="n">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="P152" t="n">
-        <v>198</v>
+        <v>324</v>
       </c>
       <c r="Q152" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R152" s="3" t="inlineStr">
         <is>
@@ -13234,17 +13238,17 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>CHICO PROAÑO ANDRES GABRIEL</t>
+          <t>SALVADOR QUIÑONES MARCELO FERNANDO</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1716589401</t>
+          <t>1708564727</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>CHICO PROAÑO ANDRES GABRIEL</t>
+          <t>SALVADOR QUIÑONES MARCELO FERNANDO</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -13266,7 +13270,7 @@
         <v>45901</v>
       </c>
       <c r="L153" s="2" t="n">
-        <v>46081</v>
+        <v>46079</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
@@ -13274,16 +13278,16 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="O153" t="n">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="P153" t="n">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="Q153" t="n">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="R153" s="3" t="inlineStr">
         <is>
@@ -13303,7 +13307,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE MATEMATICA</t>
+          <t>DEPARTAMENTO DE INGENIERIA QUIMICA</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -13318,17 +13322,17 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>VACA ARELLANO WALTER POLO</t>
+          <t>RIOFRIO ALMEIDA MARIA CRISTINA</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1704108297</t>
+          <t>1709570590</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>VACA ARELLANO WALTER POLO</t>
+          <t>RIOFRIO ALMEIDA MARIA CRISTINA</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -13346,24 +13350,28 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="L154" s="2" t="n">
+        <v>46081</v>
+      </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>INGRESADO</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="O154" t="n">
-        <v>108</v>
+        <v>306</v>
       </c>
       <c r="P154" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="Q154" t="n">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="R154" s="3" t="inlineStr">
         <is>
@@ -13383,7 +13391,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE MATEMATICA</t>
+          <t>DEPARTAMENTO DE INGENIERIA QUIMICA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -13398,17 +13406,17 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>CALAHORRANO RECALDE MARCO VINICIO</t>
+          <t>GUZMAN BECKMANN LILIANA</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1706263231</t>
+          <t>1713930632</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>CALAHORRANO RECALDE MARCO VINICIO</t>
+          <t>GUZMAN BECKMANN LILIANA</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -13434,7 +13442,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>PLANIFICADO INICIAL</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N155" t="n">
@@ -13444,10 +13452,10 @@
         <v>216</v>
       </c>
       <c r="P155" t="n">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="Q155" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="R155" s="3" t="inlineStr">
         <is>
@@ -13467,7 +13475,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE MATEMATICA</t>
+          <t>DEPARTAMENTO DE INGENIERIA QUIMICA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -13482,17 +13490,17 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>MERINO ROSERO PEDRO MARTIN</t>
+          <t>CHICO PROAÑO ANDRES GABRIEL</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1711883312</t>
+          <t>1716589401</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>MERINO ROSERO PEDRO MARTIN</t>
+          <t>CHICO PROAÑO ANDRES GABRIEL</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -13518,20 +13526,20 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>PLANIFICADO INICIAL</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N156" t="n">
         <v>976</v>
       </c>
       <c r="O156" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P156" t="n">
         <v>162</v>
       </c>
       <c r="Q156" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R156" s="3" t="inlineStr">
         <is>
@@ -13556,7 +13564,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -13566,27 +13574,27 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>CORTEZ ESTRELLA MANUEL FERNANDO</t>
+          <t>VACA ARELLANO WALTER POLO</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1716815897</t>
+          <t>1704108297</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>CORTEZ ESTRELLA MANUEL FERNANDO</t>
+          <t>VACA ARELLANO WALTER POLO</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -13594,28 +13602,24 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="K157" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="L157" s="2" t="n">
-        <v>46081</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR INICIAL</t>
+          <t>INGRESADO</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>976</v>
+        <v>0</v>
       </c>
       <c r="O157" t="n">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="P157" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="Q157" t="n">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="R157" s="3" t="inlineStr">
         <is>
@@ -13640,7 +13644,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -13650,27 +13654,27 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>DAVILA MONTENEGRO IGSIL AUGUSTO</t>
+          <t>CALAHORRANO RECALDE MARCO VINICIO</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1759062001</t>
+          <t>1706263231</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>DAVILA MONTENEGRO IGSIL AUGUSTO</t>
+          <t>CALAHORRANO RECALDE MARCO VINICIO</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -13686,17 +13690,17 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N158" t="n">
         <v>976</v>
       </c>
       <c r="O158" t="n">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="P158" t="n">
-        <v>324</v>
+        <v>180</v>
       </c>
       <c r="Q158" t="n">
         <v>36</v>
@@ -13719,7 +13723,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE MATERIALES</t>
+          <t>DEPARTAMENTO DE MATEMATICA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -13734,17 +13738,17 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ROSAS LAVERDE NELLY MARIA</t>
+          <t>MERINO ROSERO PEDRO MARTIN</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1714907324</t>
+          <t>1711883312</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>ROSAS LAVERDE NELLY MARIA</t>
+          <t>MERINO ROSERO PEDRO MARTIN</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -13770,20 +13774,20 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N159" t="n">
         <v>976</v>
       </c>
       <c r="O159" t="n">
+        <v>176</v>
+      </c>
+      <c r="P159" t="n">
         <v>162</v>
       </c>
-      <c r="P159" t="n">
-        <v>0</v>
-      </c>
       <c r="Q159" t="n">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="R159" s="3" t="inlineStr">
         <is>
@@ -13803,7 +13807,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE MATERIALES</t>
+          <t>DEPARTAMENTO DE MATEMATICA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -13818,17 +13822,17 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>CALDERON FREIRE EDISSON FERNANDO</t>
+          <t>CORTEZ ESTRELLA MANUEL FERNANDO</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1717157026</t>
+          <t>1716815897</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>CALDERON FREIRE EDISSON FERNANDO</t>
+          <t>CORTEZ ESTRELLA MANUEL FERNANDO</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -13854,20 +13858,20 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N160" t="n">
         <v>976</v>
       </c>
       <c r="O160" t="n">
-        <v>396</v>
+        <v>234</v>
       </c>
       <c r="P160" t="n">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="Q160" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="R160" s="3" t="inlineStr">
         <is>
@@ -13887,12 +13891,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE MATERIALES</t>
+          <t>DEPARTAMENTO DE MATEMATICA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -13902,27 +13906,27 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>JACOME ROBLES INDIRA ANTONELLA</t>
+          <t>DAVILA MONTENEGRO IGSIL AUGUSTO</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>0504119108</t>
+          <t>1759062001</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>JACOME ROBLES INDIRA ANTONELLA</t>
+          <t>DAVILA MONTENEGRO IGSIL AUGUSTO</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -13938,20 +13942,20 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N161" t="n">
         <v>976</v>
       </c>
       <c r="O161" t="n">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="P161" t="n">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="Q161" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="R161" s="3" t="inlineStr">
         <is>
@@ -13976,7 +13980,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -13986,27 +13990,27 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>HUILCA CAISALITÍN LUIS GUSTAVO</t>
+          <t>ROSAS LAVERDE NELLY MARIA</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1715508733</t>
+          <t>1714907324</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>HUILCA CAISALITÍN LUIS GUSTAVO</t>
+          <t>ROSAS LAVERDE NELLY MARIA</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -14029,13 +14033,13 @@
         <v>976</v>
       </c>
       <c r="O162" t="n">
-        <v>384</v>
+        <v>162</v>
       </c>
       <c r="P162" t="n">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="Q162" t="n">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="R162" s="3" t="inlineStr">
         <is>
@@ -14055,12 +14059,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE METALURGIA EXTRACTIVA</t>
+          <t>DEPARTAMENTO DE MATERIALES</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -14070,27 +14074,27 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>DE LA TORRE CHAUVIN ERNESTO HALE</t>
+          <t>CALDERON FREIRE EDISSON FERNANDO</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1705612230</t>
+          <t>1717157026</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>DE LA TORRE CHAUVIN ERNESTO HALE</t>
+          <t>CALDERON FREIRE EDISSON FERNANDO</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -14106,20 +14110,20 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N163" t="n">
         <v>976</v>
       </c>
       <c r="O163" t="n">
-        <v>204</v>
+        <v>396</v>
       </c>
       <c r="P163" t="n">
-        <v>162</v>
+        <v>360</v>
       </c>
       <c r="Q163" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="R163" s="3" t="inlineStr">
         <is>
@@ -14139,12 +14143,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE METALURGIA EXTRACTIVA</t>
+          <t>DEPARTAMENTO DE MATERIALES</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -14154,27 +14158,27 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>PAZMIÑO IBARRA EDDY FERNANDO</t>
+          <t>JACOME ROBLES INDIRA ANTONELLA</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1714218045</t>
+          <t>0504119108</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>PAZMIÑO IBARRA EDDY FERNANDO</t>
+          <t>JACOME ROBLES INDIRA ANTONELLA</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -14190,20 +14194,20 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>PLANIFICADO INICIAL</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N164" t="n">
         <v>976</v>
       </c>
       <c r="O164" t="n">
-        <v>264</v>
+        <v>396</v>
       </c>
       <c r="P164" t="n">
-        <v>162</v>
+        <v>378</v>
       </c>
       <c r="Q164" t="n">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="R164" s="3" t="inlineStr">
         <is>
@@ -14223,12 +14227,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE METALURGIA EXTRACTIVA</t>
+          <t>DEPARTAMENTO DE MATERIALES</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -14238,27 +14242,27 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ARAGÓN TOBAR CARLOS FRANCISCO</t>
+          <t>HUILCA CAISALITÍN LUIS GUSTAVO</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1719251553</t>
+          <t>1715508733</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>ARAGÓN TOBAR CARLOS FRANCISCO</t>
+          <t>HUILCA CAISALITÍN LUIS GUSTAVO</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -14274,17 +14278,17 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>PLANIFICADO INICIAL</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N165" t="n">
         <v>976</v>
       </c>
       <c r="O165" t="n">
-        <v>258</v>
+        <v>384</v>
       </c>
       <c r="P165" t="n">
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="Q165" t="n">
         <v>6</v>
@@ -14322,17 +14326,17 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>MANANGON PERUGACHI LUCIA ELIANA</t>
+          <t>DE LA TORRE CHAUVIN ERNESTO HALE</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1720014859</t>
+          <t>1705612230</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>MANANGON PERUGACHI LUCIA ELIANA</t>
+          <t>DE LA TORRE CHAUVIN ERNESTO HALE</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -14358,20 +14362,20 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR PROFESOR INICIAL</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N166" t="n">
         <v>976</v>
       </c>
       <c r="O166" t="n">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="P166" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="Q166" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="R166" s="3" t="inlineStr">
         <is>
@@ -14391,7 +14395,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE PETROLEOS</t>
+          <t>DEPARTAMENTO DE METALURGIA EXTRACTIVA</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -14406,17 +14410,17 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>GONZALEZ MAYA JAIME OSWALDO</t>
+          <t>PAZMIÑO IBARRA EDDY FERNANDO</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1716823545</t>
+          <t>1714218045</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>GONZALEZ MAYA JAIME OSWALDO</t>
+          <t>PAZMIÑO IBARRA EDDY FERNANDO</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -14442,20 +14446,20 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N167" t="n">
         <v>976</v>
       </c>
       <c r="O167" t="n">
-        <v>342</v>
+        <v>264</v>
       </c>
       <c r="P167" t="n">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="Q167" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="R167" s="3" t="inlineStr">
         <is>
@@ -14475,7 +14479,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE PETROLEOS</t>
+          <t>DEPARTAMENTO DE METALURGIA EXTRACTIVA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -14485,22 +14489,22 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ORTEGA VERINAZ RUBEN GUILLERMO</t>
+          <t>ARAGÓN TOBAR CARLOS FRANCISCO</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>0701078636</t>
+          <t>1719251553</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>ORTEGA VERINAZ RUBEN GUILLERMO</t>
+          <t>ARAGÓN TOBAR CARLOS FRANCISCO</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -14515,27 +14519,31 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="K168" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="L168" s="2" t="n">
+        <v>46081</v>
+      </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>INGRESADO</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="O168" t="n">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="P168" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="Q168" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="R168" s="3" t="inlineStr">
         <is>
@@ -14555,12 +14563,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO DE PETROLEOS</t>
+          <t>DEPARTAMENTO DE METALURGIA EXTRACTIVA</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -14570,27 +14578,27 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>CHAVEZ ORMAZA WLADIMIR PATRICIO</t>
+          <t>MANANGON PERUGACHI LUCIA ELIANA</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1718543117</t>
+          <t>1720014859</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>CHAVEZ ORMAZA WLADIMIR PATRICIO</t>
+          <t>MANANGON PERUGACHI LUCIA ELIANA</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -14606,20 +14614,20 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>ENVIADO INICIAL</t>
         </is>
       </c>
       <c r="N169" t="n">
         <v>976</v>
       </c>
       <c r="O169" t="n">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="P169" t="n">
-        <v>324</v>
+        <v>180</v>
       </c>
       <c r="Q169" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="R169" s="3" t="inlineStr">
         <is>
@@ -14644,7 +14652,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -14654,27 +14662,27 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>MIRANDA DIAZ GUILLERMO JAVIER</t>
+          <t>GONZALEZ MAYA JAIME OSWALDO</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1722317946</t>
+          <t>1716823545</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>MIRANDA DIAZ GUILLERMO JAVIER</t>
+          <t>GONZALEZ MAYA JAIME OSWALDO</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -14690,20 +14698,20 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>REVISION INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N170" t="n">
         <v>976</v>
       </c>
       <c r="O170" t="n">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="P170" t="n">
-        <v>360</v>
+        <v>234</v>
       </c>
       <c r="Q170" t="n">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="R170" s="3" t="inlineStr">
         <is>
@@ -14723,71 +14731,67 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ESCUELA DE FORMACION DE TECNOLOGOS</t>
+          <t>DEPARTAMENTO DE PETROLEOS</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CHULDE OBANDO LORENA ELIZABETH</t>
+          <t>ORTEGA VERINAZ RUBEN GUILLERMO</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>0401110481</t>
+          <t>0701078636</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>CHULDE OBANDO LORENA ELIZABETH</t>
+          <t>ORTEGA VERINAZ RUBEN GUILLERMO</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>OCASIONAL</t>
+          <t>TITULAR</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>TC</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="L171" s="2" t="n">
-        <v>46081</v>
-      </c>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr">
         <is>
-          <t>PLANIFICADO INICIAL</t>
+          <t>INGRESADO</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>976</v>
+        <v>0</v>
       </c>
       <c r="O171" t="n">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="P171" t="n">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="Q171" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="R171" s="3" t="inlineStr">
         <is>
@@ -14807,7 +14811,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ESCUELA DE FORMACION DE TECNOLOGOS</t>
+          <t>DEPARTAMENTO DE PETROLEOS</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -14822,17 +14826,17 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>MALDONADO SOLIZ IVONNE FERNANDA</t>
+          <t>MARTINEZ VILLARREAL JOANA SALOME</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1714130620</t>
+          <t>0401436639</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>MALDONADO SOLIZ IVONNE FERNANDA</t>
+          <t>MARTINEZ VILLARREAL JOANA SALOME</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -14858,20 +14862,20 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>PLANIFICADO INICIAL</t>
+          <t>POR RECTIFICAR INICIAL</t>
         </is>
       </c>
       <c r="N172" t="n">
         <v>976</v>
       </c>
       <c r="O172" t="n">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="P172" t="n">
         <v>324</v>
       </c>
       <c r="Q172" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="R172" s="3" t="inlineStr">
         <is>
@@ -14891,7 +14895,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ESCUELA DE FORMACION DE TECNOLOGOS</t>
+          <t>DEPARTAMENTO DE PETROLEOS</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -14906,17 +14910,17 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>GUEVARA BALAREZO VANESSA KATHERINE</t>
+          <t>CHAVEZ ORMAZA WLADIMIR PATRICIO</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1715503544</t>
+          <t>1718543117</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>GUEVARA BALAREZO VANESSA KATHERINE</t>
+          <t>CHAVEZ ORMAZA WLADIMIR PATRICIO</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -14949,13 +14953,13 @@
         <v>976</v>
       </c>
       <c r="O173" t="n">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="P173" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="Q173" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="R173" s="3" t="inlineStr">
         <is>
@@ -14975,7 +14979,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ESCUELA DE FORMACION DE TECNOLOGOS</t>
+          <t>DEPARTAMENTO DE PETROLEOS</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -14990,17 +14994,17 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>PAZMIÑO ORTIZ LEANDRO ANTONIO</t>
+          <t>MIRANDA DIAZ GUILLERMO JAVIER</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1717115495</t>
+          <t>1722317946</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>PAZMIÑO ORTIZ LEANDRO ANTONIO</t>
+          <t>MIRANDA DIAZ GUILLERMO JAVIER</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -15033,10 +15037,10 @@
         <v>976</v>
       </c>
       <c r="O174" t="n">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="P174" t="n">
-        <v>306</v>
+        <v>378</v>
       </c>
       <c r="Q174" t="n">
         <v>18</v>
@@ -15074,17 +15078,17 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ARMAS FREIRE CATALINA ELIZABETH</t>
+          <t>CHULDE OBANDO LORENA ELIZABETH</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1717290025</t>
+          <t>0401110481</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>ARMAS FREIRE CATALINA ELIZABETH</t>
+          <t>CHULDE OBANDO LORENA ELIZABETH</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -15120,10 +15124,10 @@
         <v>324</v>
       </c>
       <c r="P175" t="n">
-        <v>36</v>
+        <v>306</v>
       </c>
       <c r="Q175" t="n">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="R175" s="3" t="inlineStr">
         <is>
@@ -15148,7 +15152,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -15158,27 +15162,27 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ARGOTI ARCOS ROBERTH MIGUEL</t>
+          <t>MALDONADO SOLIZ IVONNE FERNANDA</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>0401771597</t>
+          <t>1714130620</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>ARGOTI ARCOS ROBERTH MIGUEL</t>
+          <t>MALDONADO SOLIZ IVONNE FERNANDA</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -15201,13 +15205,13 @@
         <v>976</v>
       </c>
       <c r="O176" t="n">
-        <v>432</v>
+        <v>342</v>
       </c>
       <c r="P176" t="n">
-        <v>416</v>
+        <v>324</v>
       </c>
       <c r="Q176" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R176" s="3" t="inlineStr">
         <is>
@@ -15232,7 +15236,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -15242,27 +15246,27 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SANCHEZ PROAÑO DIEGO VINICIO</t>
+          <t>GUEVARA BALAREZO VANESSA KATHERINE</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1715542377</t>
+          <t>1715503544</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>SANCHEZ PROAÑO DIEGO VINICIO</t>
+          <t>GUEVARA BALAREZO VANESSA KATHERINE</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -15285,13 +15289,13 @@
         <v>976</v>
       </c>
       <c r="O177" t="n">
-        <v>436</v>
+        <v>360</v>
       </c>
       <c r="P177" t="n">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="Q177" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="R177" s="3" t="inlineStr">
         <is>
@@ -15311,12 +15315,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>INSTITUTO GEOFISICO DE LA ESCUELA POLITECNICA NACIONAL</t>
+          <t>ESCUELA DE FORMACION DE TECNOLOGOS</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -15326,27 +15330,27 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>VALLEJO VARGAS SILVIA XIMENA</t>
+          <t>PAZMIÑO ORTIZ LEANDRO ANTONIO</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0603371766</t>
+          <t>1717115495</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>VALLEJO VARGAS SILVIA XIMENA</t>
+          <t>PAZMIÑO ORTIZ LEANDRO ANTONIO</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -15362,20 +15366,20 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N178" t="n">
         <v>976</v>
       </c>
       <c r="O178" t="n">
-        <v>144</v>
+        <v>324</v>
       </c>
       <c r="P178" t="n">
-        <v>122</v>
+        <v>306</v>
       </c>
       <c r="Q178" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R178" s="3" t="inlineStr">
         <is>
@@ -15395,12 +15399,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>INSTITUTO GEOFISICO DE LA ESCUELA POLITECNICA NACIONAL</t>
+          <t>ESCUELA DE FORMACION DE TECNOLOGOS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -15410,27 +15414,27 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>PALACIOS PALACIOS PABLO BOLIVAR</t>
+          <t>ARMAS FREIRE CATALINA ELIZABETH</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1708219215</t>
+          <t>1717290025</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>PALACIOS PALACIOS PABLO BOLIVAR</t>
+          <t>ARMAS FREIRE CATALINA ELIZABETH</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>OCASIONAL</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -15446,20 +15450,20 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N179" t="n">
         <v>976</v>
       </c>
       <c r="O179" t="n">
-        <v>108</v>
+        <v>324</v>
       </c>
       <c r="P179" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Q179" t="n">
-        <v>54</v>
+        <v>288</v>
       </c>
       <c r="R179" s="3" t="inlineStr">
         <is>
@@ -15479,12 +15483,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>INSTITUTO GEOFISICO DE LA ESCUELA POLITECNICA NACIONAL</t>
+          <t>ESCUELA DE FORMACION DE TECNOLOGOS</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -15494,27 +15498,27 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ANDRADE VARELA SANTIAGO DANIEL</t>
+          <t>ARGOTI ARCOS ROBERTH MIGUEL</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1709347163</t>
+          <t>0401771597</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>ANDRADE VARELA SANTIAGO DANIEL</t>
+          <t>ARGOTI ARCOS ROBERTH MIGUEL</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -15530,20 +15534,20 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N180" t="n">
         <v>976</v>
       </c>
       <c r="O180" t="n">
-        <v>126</v>
+        <v>432</v>
       </c>
       <c r="P180" t="n">
-        <v>108</v>
+        <v>416</v>
       </c>
       <c r="Q180" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R180" s="3" t="inlineStr">
         <is>
@@ -15563,12 +15567,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>INSTITUTO GEOFISICO DE LA ESCUELA POLITECNICA NACIONAL</t>
+          <t>ESCUELA DE FORMACION DE TECNOLOGOS</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -15578,27 +15582,27 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>HIDALGO TRUJILLO SILVANA IVONNE</t>
+          <t>SANCHEZ PROAÑO DIEGO VINICIO</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1709667008</t>
+          <t>1715542377</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>HIDALGO TRUJILLO SILVANA IVONNE</t>
+          <t>SANCHEZ PROAÑO DIEGO VINICIO</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>TITULAR</t>
+          <t>TÉCNICO DOCENTE POLITÉCNICO</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -15614,20 +15618,20 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR INICIAL</t>
+          <t>PLANIFICADO INICIAL</t>
         </is>
       </c>
       <c r="N181" t="n">
         <v>976</v>
       </c>
       <c r="O181" t="n">
-        <v>108</v>
+        <v>436</v>
       </c>
       <c r="P181" t="n">
-        <v>54</v>
+        <v>364</v>
       </c>
       <c r="Q181" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="R181" s="3" t="inlineStr">
         <is>
@@ -15662,17 +15666,17 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>BERNARD BENJAMIN PIERRE THIBAUT</t>
+          <t>VALLEJO VARGAS SILVIA XIMENA</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1751980432</t>
+          <t>0603371766</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>BERNARD BENJAMIN PIERRE THIBAUT</t>
+          <t>VALLEJO VARGAS SILVIA XIMENA</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -15698,7 +15702,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>POR RECTIFICAR INICIAL</t>
+          <t>REVISION INICIAL</t>
         </is>
       </c>
       <c r="N182" t="n">
@@ -15708,12 +15712,348 @@
         <v>144</v>
       </c>
       <c r="P182" t="n">
+        <v>122</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>22</v>
+      </c>
+      <c r="R182" s="3" t="inlineStr">
+        <is>
+          <t>Se observa una disminución en la carga
+horaria de clases en el periodo 2025-B. Se recuerda que dicha
+reducción solo será válida en caso de que el
+departamento no solicite la incorporación de nuevo
+personal académico.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-B</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>INSTITUTO GEOFISICO DE LA ESCUELA POLITECNICA NACIONAL</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>TITULAR</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>PALACIOS PALACIOS PABLO BOLIVAR</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1708219215</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>PALACIOS PALACIOS PABLO BOLIVAR</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>TITULAR</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>TITULAR</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="L183" s="2" t="n">
+        <v>46081</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>REVISION INICIAL</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>976</v>
+      </c>
+      <c r="O183" t="n">
+        <v>108</v>
+      </c>
+      <c r="P183" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>54</v>
+      </c>
+      <c r="R183" s="3" t="inlineStr">
+        <is>
+          <t>Se observa una disminución en la carga
+horaria de clases en el periodo 2025-B. Se recuerda que dicha
+reducción solo será válida en caso de que el
+departamento no solicite la incorporación de nuevo
+personal académico.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-B</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>INSTITUTO GEOFISICO DE LA ESCUELA POLITECNICA NACIONAL</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>TITULAR</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>ANDRADE VARELA SANTIAGO DANIEL</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1709347163</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>ANDRADE VARELA SANTIAGO DANIEL</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>TITULAR</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>TITULAR</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="L184" s="2" t="n">
+        <v>46081</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>REVISION INICIAL</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>976</v>
+      </c>
+      <c r="O184" t="n">
         <v>126</v>
       </c>
-      <c r="Q182" t="n">
+      <c r="P184" t="n">
+        <v>108</v>
+      </c>
+      <c r="Q184" t="n">
         <v>18</v>
       </c>
-      <c r="R182" s="3" t="inlineStr">
+      <c r="R184" s="3" t="inlineStr">
+        <is>
+          <t>Se observa una disminución en la carga
+horaria de clases en el periodo 2025-B. Se recuerda que dicha
+reducción solo será válida en caso de que el
+departamento no solicite la incorporación de nuevo
+personal académico.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-B</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>INSTITUTO GEOFISICO DE LA ESCUELA POLITECNICA NACIONAL</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>TITULAR</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>HIDALGO TRUJILLO SILVANA IVONNE</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1709667008</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>HIDALGO TRUJILLO SILVANA IVONNE</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>TITULAR</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>TITULAR</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="L185" s="2" t="n">
+        <v>46081</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>REVISION INICIAL</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>976</v>
+      </c>
+      <c r="O185" t="n">
+        <v>108</v>
+      </c>
+      <c r="P185" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>54</v>
+      </c>
+      <c r="R185" s="3" t="inlineStr">
+        <is>
+          <t>Se observa una disminución en la carga
+horaria de clases en el periodo 2025-B. Se recuerda que dicha
+reducción solo será válida en caso de que el
+departamento no solicite la incorporación de nuevo
+personal académico.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-B</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>INSTITUTO GEOFISICO DE LA ESCUELA POLITECNICA NACIONAL</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>TITULAR</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>BERNARD BENJAMIN PIERRE THIBAUT</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1751980432</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>BERNARD BENJAMIN PIERRE THIBAUT</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>TITULAR</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>TITULAR</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="L186" s="2" t="n">
+        <v>46081</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>REVISION INICIAL</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>976</v>
+      </c>
+      <c r="O186" t="n">
+        <v>144</v>
+      </c>
+      <c r="P186" t="n">
+        <v>126</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>18</v>
+      </c>
+      <c r="R186" s="3" t="inlineStr">
         <is>
           <t>Se observa una disminución en la carga
 horaria de clases en el periodo 2025-B. Se recuerda que dicha
@@ -15724,7 +16064,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R182"/>
+  <autoFilter ref="A1:R186"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>